--- a/Textbooks, projects/Organization and management of production activities/cgt.xlsx
+++ b/Textbooks, projects/Organization and management of production activities/cgt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8505F1E6-47EA-4C9A-8E82-873047776AF8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BA3271-A73F-41AB-B45A-65C7CE24BCF6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>S1</t>
   </si>
@@ -159,13 +159,85 @@
   <si>
     <t>S5(nan_tр)=</t>
   </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>α6=</t>
+  </si>
+  <si>
+    <t>m=</t>
+  </si>
+  <si>
+    <t>Kг2=</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>β</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1=</t>
+    </r>
+  </si>
+  <si>
+    <t>Vм=</t>
+  </si>
+  <si>
+    <t>Зм=</t>
+  </si>
+  <si>
+    <t>Pi=</t>
+  </si>
+  <si>
+    <t>Э</t>
+  </si>
+  <si>
+    <t>К</t>
+  </si>
+  <si>
+    <t>Б</t>
+  </si>
+  <si>
+    <t>м3/смена</t>
+  </si>
+  <si>
+    <t>тыс.руб/смена</t>
+  </si>
+  <si>
+    <t>м3</t>
+  </si>
+  <si>
+    <t>S6(1)</t>
+  </si>
+  <si>
+    <t>S6(2)</t>
+  </si>
+  <si>
+    <t>S6(3)</t>
+  </si>
+  <si>
+    <t>S6(nan_tр)=</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -261,7 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -270,7 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -279,7 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -562,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:Z35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,9 +648,12 @@
     <col min="16" max="16" width="15.28515625" customWidth="1"/>
     <col min="19" max="19" width="12.7109375" customWidth="1"/>
     <col min="20" max="20" width="14" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" customWidth="1"/>
+    <col min="23" max="24" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -598,14 +673,17 @@
       <c r="M1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="S1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -639,7 +717,7 @@
         <v>29</v>
       </c>
       <c r="Q2" s="2">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>34</v>
@@ -647,8 +725,14 @@
       <c r="T2" s="2">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -676,7 +760,7 @@
         <v>30</v>
       </c>
       <c r="Q3" s="2">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>35</v>
@@ -684,8 +768,14 @@
       <c r="T3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -712,10 +802,16 @@
         <v>36</v>
       </c>
       <c r="T4" s="2">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2E-3</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -746,10 +842,16 @@
       </c>
       <c r="Q5" s="9">
         <f>F2*F3*F5*Q2*B1*B7/Q3</f>
-        <v>286.88314619249996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+        <v>271.79455160000003</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -773,10 +875,19 @@
       </c>
       <c r="T6" s="9">
         <f>T2*T3*B2*J3*F5*T4</f>
-        <v>1.8215999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.6431999999999998</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -814,8 +925,23 @@
       <c r="Q7" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="W7" s="8">
+        <v>12000</v>
+      </c>
+      <c r="X7" s="8">
+        <v>630</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>3600</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="3"/>
       <c r="I8" s="8">
@@ -837,7 +963,7 @@
       </c>
       <c r="Q8" s="15">
         <f>$Q$5/P8</f>
-        <v>286.88314619249996</v>
+        <v>271.79455160000003</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>17</v>
@@ -845,8 +971,23 @@
       <c r="T8" s="11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W8" s="8">
+        <v>120</v>
+      </c>
+      <c r="X8" s="8">
+        <v>200</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>150</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3"/>
       <c r="E9" s="11" t="s">
@@ -874,17 +1015,32 @@
       </c>
       <c r="Q9" s="15">
         <f t="shared" ref="Q9:Q26" si="2">$Q$5/P9</f>
-        <v>143.44157309624998</v>
+        <v>135.89727580000002</v>
       </c>
       <c r="S9" s="8">
         <v>1</v>
       </c>
       <c r="T9" s="15">
         <f>$T$6/S9</f>
-        <v>1.8215999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.6431999999999998</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W9" s="8">
+        <v>300</v>
+      </c>
+      <c r="X9" s="8">
+        <v>35</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>500</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="3"/>
       <c r="E10" s="11">
@@ -913,17 +1069,17 @@
       </c>
       <c r="Q10" s="15">
         <f t="shared" si="2"/>
-        <v>95.627715397499983</v>
+        <v>90.598183866666673</v>
       </c>
       <c r="S10" s="8">
         <v>2</v>
       </c>
       <c r="T10" s="15">
         <f t="shared" ref="T10:T27" si="3">$T$6/S10</f>
-        <v>0.91079999999999994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.8215999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="3"/>
       <c r="E11" s="11">
@@ -952,17 +1108,26 @@
       </c>
       <c r="Q11" s="15">
         <f t="shared" si="2"/>
-        <v>71.720786548124991</v>
+        <v>67.948637900000008</v>
       </c>
       <c r="S11" s="8">
         <v>3</v>
       </c>
       <c r="T11" s="15">
         <f t="shared" si="3"/>
-        <v>0.60719999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.2143999999999999</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="X11" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E12" s="11">
         <v>3</v>
       </c>
@@ -989,17 +1154,29 @@
       </c>
       <c r="Q12" s="15">
         <f t="shared" si="2"/>
-        <v>57.376629238499994</v>
+        <v>54.358910320000007</v>
       </c>
       <c r="S12" s="8">
         <v>4</v>
       </c>
       <c r="T12" s="15">
         <f t="shared" si="3"/>
-        <v>0.45539999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.91079999999999994</v>
+      </c>
+      <c r="V12" s="15">
+        <f>(W7*F5*(W8/1000))/(W9*W2*W4*W5)</f>
+        <v>10.875722215928402</v>
+      </c>
+      <c r="W12" s="15">
+        <f>(X7*F5*(X8/1000))/(X9*W2*W4*W5)</f>
+        <v>8.1567916619463023</v>
+      </c>
+      <c r="X12" s="15">
+        <f>(Y7*F5*(Y8/1000))/(Y9*W2*W4*W5)</f>
+        <v>2.4470374985838905</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="11">
         <v>4</v>
       </c>
@@ -1026,17 +1203,17 @@
       </c>
       <c r="Q13" s="15">
         <f t="shared" si="2"/>
-        <v>47.813857698749992</v>
+        <v>45.299091933333337</v>
       </c>
       <c r="S13" s="8">
         <v>5</v>
       </c>
       <c r="T13" s="15">
         <f t="shared" si="3"/>
-        <v>0.36431999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.72863999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E14" s="11">
         <v>5</v>
       </c>
@@ -1063,17 +1240,24 @@
       </c>
       <c r="Q14" s="15">
         <f t="shared" si="2"/>
-        <v>40.983306598928564</v>
+        <v>38.827793085714291</v>
       </c>
       <c r="S14" s="8">
         <v>6</v>
       </c>
       <c r="T14" s="15">
         <f t="shared" si="3"/>
-        <v>0.30359999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.60719999999999996</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W14" s="9">
+        <f>V12+W12+X12</f>
+        <v>21.479551376458595</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E15" s="11">
         <v>6</v>
       </c>
@@ -1100,17 +1284,17 @@
       </c>
       <c r="Q15" s="15">
         <f t="shared" si="2"/>
-        <v>35.860393274062496</v>
+        <v>33.974318950000004</v>
       </c>
       <c r="S15" s="8">
         <v>7</v>
       </c>
       <c r="T15" s="15">
         <f t="shared" si="3"/>
-        <v>0.26022857142857142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.52045714285714284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E16" s="11">
         <v>7</v>
       </c>
@@ -1137,17 +1321,23 @@
       </c>
       <c r="Q16" s="15">
         <f t="shared" si="2"/>
-        <v>31.875905132499994</v>
+        <v>30.199394622222226</v>
       </c>
       <c r="S16" s="8">
         <v>8</v>
       </c>
       <c r="T16" s="15">
         <f t="shared" si="3"/>
-        <v>0.22769999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="5:20" x14ac:dyDescent="0.25">
+        <v>0.45539999999999997</v>
+      </c>
+      <c r="V16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="W16" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E17" s="11">
         <v>8</v>
       </c>
@@ -1174,17 +1364,24 @@
       </c>
       <c r="Q17" s="15">
         <f t="shared" si="2"/>
-        <v>28.688314619249997</v>
+        <v>27.179455160000003</v>
       </c>
       <c r="S17" s="8">
         <v>9</v>
       </c>
       <c r="T17" s="15">
         <f t="shared" si="3"/>
-        <v>0.2024</v>
-      </c>
-    </row>
-    <row r="18" spans="5:20" x14ac:dyDescent="0.25">
+        <v>0.40479999999999999</v>
+      </c>
+      <c r="V17" s="8">
+        <v>1</v>
+      </c>
+      <c r="W17" s="15">
+        <f>$W$14/V17</f>
+        <v>21.479551376458595</v>
+      </c>
+    </row>
+    <row r="18" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E18" s="11">
         <v>9</v>
       </c>
@@ -1211,17 +1408,24 @@
       </c>
       <c r="Q18" s="15">
         <f t="shared" si="2"/>
-        <v>26.080286017499997</v>
+        <v>24.708595600000002</v>
       </c>
       <c r="S18" s="8">
         <v>10</v>
       </c>
       <c r="T18" s="15">
         <f t="shared" si="3"/>
-        <v>0.18215999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="5:20" x14ac:dyDescent="0.25">
+        <v>0.36431999999999998</v>
+      </c>
+      <c r="V18" s="8">
+        <v>2</v>
+      </c>
+      <c r="W18" s="15">
+        <f t="shared" ref="W18:W35" si="5">$W$14/V18</f>
+        <v>10.739775688229297</v>
+      </c>
+    </row>
+    <row r="19" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E19" s="11">
         <v>10</v>
       </c>
@@ -1248,17 +1452,24 @@
       </c>
       <c r="Q19" s="15">
         <f t="shared" si="2"/>
-        <v>23.906928849374996</v>
+        <v>22.649545966666668</v>
       </c>
       <c r="S19" s="8">
         <v>11</v>
       </c>
       <c r="T19" s="15">
         <f t="shared" si="3"/>
-        <v>0.1656</v>
-      </c>
-    </row>
-    <row r="20" spans="5:20" x14ac:dyDescent="0.25">
+        <v>0.33119999999999999</v>
+      </c>
+      <c r="V19" s="8">
+        <v>3</v>
+      </c>
+      <c r="W19" s="15">
+        <f t="shared" si="5"/>
+        <v>7.1598504588195313</v>
+      </c>
+    </row>
+    <row r="20" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E20" s="11">
         <v>11</v>
       </c>
@@ -1285,17 +1496,24 @@
       </c>
       <c r="Q20" s="15">
         <f t="shared" si="2"/>
-        <v>22.067934322499998</v>
+        <v>20.907273200000002</v>
       </c>
       <c r="S20" s="8">
         <v>12</v>
       </c>
       <c r="T20" s="15">
         <f t="shared" si="3"/>
-        <v>0.15179999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="5:20" x14ac:dyDescent="0.25">
+        <v>0.30359999999999998</v>
+      </c>
+      <c r="V20" s="8">
+        <v>4</v>
+      </c>
+      <c r="W20" s="15">
+        <f t="shared" si="5"/>
+        <v>5.3698878441146487</v>
+      </c>
+    </row>
+    <row r="21" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E21" s="11">
         <v>12</v>
       </c>
@@ -1322,17 +1540,24 @@
       </c>
       <c r="Q21" s="15">
         <f t="shared" si="2"/>
-        <v>20.491653299464282</v>
+        <v>19.413896542857145</v>
       </c>
       <c r="S21" s="8">
         <v>13</v>
       </c>
       <c r="T21" s="15">
         <f t="shared" si="3"/>
-        <v>0.14012307692307691</v>
-      </c>
-    </row>
-    <row r="22" spans="5:20" x14ac:dyDescent="0.25">
+        <v>0.28024615384615381</v>
+      </c>
+      <c r="V21" s="8">
+        <v>5</v>
+      </c>
+      <c r="W21" s="15">
+        <f t="shared" si="5"/>
+        <v>4.2959102752917193</v>
+      </c>
+    </row>
+    <row r="22" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E22" s="11">
         <v>13</v>
       </c>
@@ -1359,17 +1584,24 @@
       </c>
       <c r="Q22" s="15">
         <f t="shared" si="2"/>
-        <v>19.125543079499998</v>
+        <v>18.119636773333337</v>
       </c>
       <c r="S22" s="8">
         <v>14</v>
       </c>
       <c r="T22" s="15">
         <f t="shared" si="3"/>
-        <v>0.13011428571428571</v>
-      </c>
-    </row>
-    <row r="23" spans="5:20" x14ac:dyDescent="0.25">
+        <v>0.26022857142857142</v>
+      </c>
+      <c r="V22" s="8">
+        <v>6</v>
+      </c>
+      <c r="W22" s="15">
+        <f t="shared" si="5"/>
+        <v>3.5799252294097657</v>
+      </c>
+    </row>
+    <row r="23" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E23" s="11">
         <v>14</v>
       </c>
@@ -1396,17 +1628,24 @@
       </c>
       <c r="Q23" s="15">
         <f t="shared" si="2"/>
-        <v>17.930196637031248</v>
+        <v>16.987159475000002</v>
       </c>
       <c r="S23" s="8">
         <v>15</v>
       </c>
       <c r="T23" s="15">
         <f t="shared" si="3"/>
-        <v>0.12143999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="5:20" x14ac:dyDescent="0.25">
+        <v>0.24287999999999998</v>
+      </c>
+      <c r="V23" s="8">
+        <v>7</v>
+      </c>
+      <c r="W23" s="15">
+        <f t="shared" si="5"/>
+        <v>3.0685073394940852</v>
+      </c>
+    </row>
+    <row r="24" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E24" s="11">
         <v>15</v>
       </c>
@@ -1433,17 +1672,24 @@
       </c>
       <c r="Q24" s="15">
         <f t="shared" si="2"/>
-        <v>16.875479187794117</v>
+        <v>15.987914800000002</v>
       </c>
       <c r="S24" s="8">
         <v>16</v>
       </c>
       <c r="T24" s="15">
         <f t="shared" si="3"/>
-        <v>0.11384999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="5:20" x14ac:dyDescent="0.25">
+        <v>0.22769999999999999</v>
+      </c>
+      <c r="V24" s="8">
+        <v>8</v>
+      </c>
+      <c r="W24" s="15">
+        <f t="shared" si="5"/>
+        <v>2.6849439220573244</v>
+      </c>
+    </row>
+    <row r="25" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E25" s="11">
         <v>16</v>
       </c>
@@ -1470,17 +1716,24 @@
       </c>
       <c r="Q25" s="15">
         <f t="shared" si="2"/>
-        <v>15.937952566249997</v>
+        <v>15.099697311111113</v>
       </c>
       <c r="S25" s="8">
         <v>17</v>
       </c>
       <c r="T25" s="15">
         <f t="shared" si="3"/>
-        <v>0.10715294117647058</v>
-      </c>
-    </row>
-    <row r="26" spans="5:20" x14ac:dyDescent="0.25">
+        <v>0.21430588235294115</v>
+      </c>
+      <c r="V25" s="8">
+        <v>9</v>
+      </c>
+      <c r="W25" s="15">
+        <f t="shared" si="5"/>
+        <v>2.3866168196065107</v>
+      </c>
+    </row>
+    <row r="26" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E26" s="11">
         <v>17</v>
       </c>
@@ -1499,18 +1752,25 @@
         <v>19</v>
       </c>
       <c r="Q26" s="15">
-        <f t="shared" si="2"/>
-        <v>15.099112957499997</v>
+        <f>$Q$5/P26</f>
+        <v>14.304976400000001</v>
       </c>
       <c r="S26" s="8">
         <v>18</v>
       </c>
       <c r="T26" s="15">
         <f t="shared" si="3"/>
-        <v>0.1012</v>
-      </c>
-    </row>
-    <row r="27" spans="5:20" x14ac:dyDescent="0.25">
+        <v>0.2024</v>
+      </c>
+      <c r="V26" s="8">
+        <v>10</v>
+      </c>
+      <c r="W26" s="15">
+        <f t="shared" si="5"/>
+        <v>2.1479551376458597</v>
+      </c>
+    </row>
+    <row r="27" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E27" s="11">
         <v>18</v>
       </c>
@@ -1523,16 +1783,93 @@
       </c>
       <c r="T27" s="15">
         <f t="shared" si="3"/>
-        <v>9.5873684210526305E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="5:20" x14ac:dyDescent="0.25">
+        <v>0.19174736842105261</v>
+      </c>
+      <c r="V27" s="8">
+        <v>11</v>
+      </c>
+      <c r="W27" s="15">
+        <f t="shared" si="5"/>
+        <v>1.9526864887689632</v>
+      </c>
+    </row>
+    <row r="28" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E28" s="11">
         <v>19</v>
       </c>
       <c r="F28" s="12">
         <f t="shared" si="4"/>
         <v>18.594391830238724</v>
+      </c>
+      <c r="V28" s="8">
+        <v>12</v>
+      </c>
+      <c r="W28" s="15">
+        <f t="shared" si="5"/>
+        <v>1.7899626147048828</v>
+      </c>
+    </row>
+    <row r="29" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="V29" s="8">
+        <v>13</v>
+      </c>
+      <c r="W29" s="15">
+        <f t="shared" si="5"/>
+        <v>1.6522731828045072</v>
+      </c>
+    </row>
+    <row r="30" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="V30" s="8">
+        <v>14</v>
+      </c>
+      <c r="W30" s="15">
+        <f t="shared" si="5"/>
+        <v>1.5342536697470426</v>
+      </c>
+    </row>
+    <row r="31" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="V31" s="8">
+        <v>15</v>
+      </c>
+      <c r="W31" s="15">
+        <f t="shared" si="5"/>
+        <v>1.4319700917639062</v>
+      </c>
+    </row>
+    <row r="32" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="V32" s="8">
+        <v>16</v>
+      </c>
+      <c r="W32" s="15">
+        <f t="shared" si="5"/>
+        <v>1.3424719610286622</v>
+      </c>
+    </row>
+    <row r="33" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V33" s="8">
+        <v>17</v>
+      </c>
+      <c r="W33" s="15">
+        <f t="shared" si="5"/>
+        <v>1.2635030221446233</v>
+      </c>
+    </row>
+    <row r="34" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V34" s="8">
+        <v>18</v>
+      </c>
+      <c r="W34" s="15">
+        <f t="shared" si="5"/>
+        <v>1.1933084098032554</v>
+      </c>
+    </row>
+    <row r="35" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V35" s="8">
+        <v>19</v>
+      </c>
+      <c r="W35" s="15">
+        <f>$W$14/V35</f>
+        <v>1.1305027040241367</v>
       </c>
     </row>
   </sheetData>

--- a/Textbooks, projects/Organization and management of production activities/cgt.xlsx
+++ b/Textbooks, projects/Organization and management of production activities/cgt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BA3271-A73F-41AB-B45A-65C7CE24BCF6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280D6FA4-063C-4436-A7CB-E289A2DB645D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -637,7 +637,7 @@
   <dimension ref="A1:Z35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="Q9" s="15">
-        <f t="shared" ref="Q9:Q26" si="2">$Q$5/P9</f>
+        <f t="shared" ref="Q9:Q25" si="2">$Q$5/P9</f>
         <v>135.89727580000002</v>
       </c>
       <c r="S9" s="8">
@@ -1421,7 +1421,7 @@
         <v>2</v>
       </c>
       <c r="W18" s="15">
-        <f t="shared" ref="W18:W35" si="5">$W$14/V18</f>
+        <f t="shared" ref="W18:W34" si="5">$W$14/V18</f>
         <v>10.739775688229297</v>
       </c>
     </row>

--- a/Textbooks, projects/Organization and management of production activities/cgt.xlsx
+++ b/Textbooks, projects/Organization and management of production activities/cgt.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280D6FA4-063C-4436-A7CB-E289A2DB645D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74772CC8-2519-4DAB-B7E7-CA041162C5FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="var_4" sheetId="1" r:id="rId1"/>
+    <sheet name="var_18" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="62">
   <si>
     <t>S1</t>
   </si>
@@ -230,6 +231,21 @@
   </si>
   <si>
     <t>S6(nan_tр)=</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>З2=</t>
+  </si>
+  <si>
+    <t>α7=</t>
+  </si>
+  <si>
+    <t>n=</t>
+  </si>
+  <si>
+    <t>S7(nan_tр)=</t>
   </si>
 </sst>
 </file>
@@ -634,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z35"/>
+  <dimension ref="A1:AC35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,9 +667,10 @@
     <col min="22" max="22" width="12.42578125" customWidth="1"/>
     <col min="23" max="24" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -682,8 +699,11 @@
       <c r="V1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -731,8 +751,14 @@
       <c r="W2" s="2">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -774,8 +800,14 @@
       <c r="W3" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -810,8 +842,14 @@
       <c r="W4" s="2">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -851,7 +889,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -886,8 +924,15 @@
       <c r="Y6" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC6" s="9">
+        <f>AC2*B2*F5/(AC3*AC4)</f>
+        <v>385.93220338983053</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -941,7 +986,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="3"/>
       <c r="I8" s="8">
@@ -986,8 +1031,14 @@
       <c r="Z8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC8" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3"/>
       <c r="E9" s="11" t="s">
@@ -1039,8 +1090,15 @@
       <c r="Z9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="15">
+        <f>$AC$6/AB9</f>
+        <v>385.93220338983053</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="3"/>
       <c r="E10" s="11">
@@ -1078,15 +1136,22 @@
         <f t="shared" ref="T10:T27" si="3">$T$6/S10</f>
         <v>1.8215999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB10" s="8">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="15">
+        <f t="shared" ref="AC10:AC27" si="4">$AC$6/AB10</f>
+        <v>192.96610169491527</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="3"/>
       <c r="E11" s="11">
         <v>2</v>
       </c>
       <c r="F11" s="12">
-        <f t="shared" ref="F11:F28" si="4">E11*$F$7</f>
+        <f t="shared" ref="F11:F28" si="5">E11*$F$7</f>
         <v>1.9573044031830236</v>
       </c>
       <c r="I11" s="8">
@@ -1126,13 +1191,20 @@
       <c r="X11" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB11" s="8">
+        <v>3</v>
+      </c>
+      <c r="AC11" s="15">
+        <f t="shared" si="4"/>
+        <v>128.64406779661019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E12" s="11">
         <v>3</v>
       </c>
       <c r="F12" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9359566047745354</v>
       </c>
       <c r="I12" s="8">
@@ -1175,13 +1247,20 @@
         <f>(Y7*F5*(Y8/1000))/(Y9*W2*W4*W5)</f>
         <v>2.4470374985838905</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB12" s="8">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="15">
+        <f t="shared" si="4"/>
+        <v>96.483050847457633</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="11">
         <v>4</v>
       </c>
       <c r="F13" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.9146088063660471</v>
       </c>
       <c r="I13" s="8">
@@ -1212,13 +1291,20 @@
         <f t="shared" si="3"/>
         <v>0.72863999999999995</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB13" s="8">
+        <v>5</v>
+      </c>
+      <c r="AC13" s="15">
+        <f t="shared" si="4"/>
+        <v>77.186440677966104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E14" s="11">
         <v>5</v>
       </c>
       <c r="F14" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.8932610079575589</v>
       </c>
       <c r="I14" s="8">
@@ -1256,13 +1342,20 @@
         <f>V12+W12+X12</f>
         <v>21.479551376458595</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB14" s="8">
+        <v>6</v>
+      </c>
+      <c r="AC14" s="15">
+        <f t="shared" si="4"/>
+        <v>64.322033898305094</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E15" s="11">
         <v>6</v>
       </c>
       <c r="F15" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.8719132095490707</v>
       </c>
       <c r="I15" s="8">
@@ -1293,13 +1386,20 @@
         <f t="shared" si="3"/>
         <v>0.52045714285714284</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB15" s="8">
+        <v>7</v>
+      </c>
+      <c r="AC15" s="15">
+        <f t="shared" si="4"/>
+        <v>55.133171912832935</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E16" s="11">
         <v>7</v>
       </c>
       <c r="F16" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.8505654111405825</v>
       </c>
       <c r="I16" s="8">
@@ -1336,13 +1436,20 @@
       <c r="W16" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="AB16" s="8">
+        <v>8</v>
+      </c>
+      <c r="AC16" s="15">
+        <f t="shared" si="4"/>
+        <v>48.241525423728817</v>
+      </c>
+    </row>
+    <row r="17" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E17" s="11">
         <v>8</v>
       </c>
       <c r="F17" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.8292176127320943</v>
       </c>
       <c r="I17" s="8">
@@ -1380,13 +1487,20 @@
         <f>$W$14/V17</f>
         <v>21.479551376458595</v>
       </c>
-    </row>
-    <row r="18" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="AB17" s="8">
+        <v>9</v>
+      </c>
+      <c r="AC17" s="15">
+        <f t="shared" si="4"/>
+        <v>42.881355932203391</v>
+      </c>
+    </row>
+    <row r="18" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E18" s="11">
         <v>9</v>
       </c>
       <c r="F18" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.8078698143236061</v>
       </c>
       <c r="I18" s="8">
@@ -1421,16 +1535,23 @@
         <v>2</v>
       </c>
       <c r="W18" s="15">
-        <f t="shared" ref="W18:W34" si="5">$W$14/V18</f>
+        <f t="shared" ref="W18:W34" si="6">$W$14/V18</f>
         <v>10.739775688229297</v>
       </c>
-    </row>
-    <row r="19" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="AB18" s="8">
+        <v>10</v>
+      </c>
+      <c r="AC18" s="15">
+        <f t="shared" si="4"/>
+        <v>38.593220338983052</v>
+      </c>
+    </row>
+    <row r="19" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E19" s="11">
         <v>10</v>
       </c>
       <c r="F19" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.7865220159151178</v>
       </c>
       <c r="I19" s="8">
@@ -1465,16 +1586,23 @@
         <v>3</v>
       </c>
       <c r="W19" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.1598504588195313</v>
       </c>
-    </row>
-    <row r="20" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="AB19" s="8">
+        <v>11</v>
+      </c>
+      <c r="AC19" s="15">
+        <f t="shared" si="4"/>
+        <v>35.084745762711869</v>
+      </c>
+    </row>
+    <row r="20" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E20" s="11">
         <v>11</v>
       </c>
       <c r="F20" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10.76517421750663</v>
       </c>
       <c r="I20" s="8">
@@ -1509,16 +1637,23 @@
         <v>4</v>
       </c>
       <c r="W20" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.3698878441146487</v>
       </c>
-    </row>
-    <row r="21" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="AB20" s="8">
+        <v>12</v>
+      </c>
+      <c r="AC20" s="15">
+        <f t="shared" si="4"/>
+        <v>32.161016949152547</v>
+      </c>
+    </row>
+    <row r="21" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E21" s="11">
         <v>12</v>
       </c>
       <c r="F21" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11.743826419098141</v>
       </c>
       <c r="I21" s="8">
@@ -1553,16 +1688,23 @@
         <v>5</v>
       </c>
       <c r="W21" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.2959102752917193</v>
       </c>
-    </row>
-    <row r="22" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="AB21" s="8">
+        <v>13</v>
+      </c>
+      <c r="AC21" s="15">
+        <f t="shared" si="4"/>
+        <v>29.687092568448502</v>
+      </c>
+    </row>
+    <row r="22" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E22" s="11">
         <v>13</v>
       </c>
       <c r="F22" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.722478620689653</v>
       </c>
       <c r="I22" s="8">
@@ -1597,16 +1739,23 @@
         <v>6</v>
       </c>
       <c r="W22" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.5799252294097657</v>
       </c>
-    </row>
-    <row r="23" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="AB22" s="8">
+        <v>14</v>
+      </c>
+      <c r="AC22" s="15">
+        <f t="shared" si="4"/>
+        <v>27.566585956416468</v>
+      </c>
+    </row>
+    <row r="23" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E23" s="11">
         <v>14</v>
       </c>
       <c r="F23" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13.701130822281165</v>
       </c>
       <c r="I23" s="8">
@@ -1641,16 +1790,23 @@
         <v>7</v>
       </c>
       <c r="W23" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.0685073394940852</v>
       </c>
-    </row>
-    <row r="24" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="AB23" s="8">
+        <v>15</v>
+      </c>
+      <c r="AC23" s="15">
+        <f t="shared" si="4"/>
+        <v>25.728813559322035</v>
+      </c>
+    </row>
+    <row r="24" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E24" s="11">
         <v>15</v>
       </c>
       <c r="F24" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.679783023872677</v>
       </c>
       <c r="I24" s="8">
@@ -1685,16 +1841,23 @@
         <v>8</v>
       </c>
       <c r="W24" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.6849439220573244</v>
       </c>
-    </row>
-    <row r="25" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="AB24" s="8">
+        <v>16</v>
+      </c>
+      <c r="AC24" s="15">
+        <f t="shared" si="4"/>
+        <v>24.120762711864408</v>
+      </c>
+    </row>
+    <row r="25" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E25" s="11">
         <v>16</v>
       </c>
       <c r="F25" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15.658435225464189</v>
       </c>
       <c r="I25" s="8">
@@ -1729,16 +1892,23 @@
         <v>9</v>
       </c>
       <c r="W25" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.3866168196065107</v>
       </c>
-    </row>
-    <row r="26" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="AB25" s="8">
+        <v>17</v>
+      </c>
+      <c r="AC25" s="15">
+        <f t="shared" si="4"/>
+        <v>22.701894317048854</v>
+      </c>
+    </row>
+    <row r="26" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E26" s="11">
         <v>17</v>
       </c>
       <c r="F26" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.6370874270557</v>
       </c>
       <c r="I26" s="8">
@@ -1766,16 +1936,23 @@
         <v>10</v>
       </c>
       <c r="W26" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1479551376458597</v>
       </c>
-    </row>
-    <row r="27" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="AB26" s="8">
+        <v>18</v>
+      </c>
+      <c r="AC26" s="15">
+        <f t="shared" si="4"/>
+        <v>21.440677966101696</v>
+      </c>
+    </row>
+    <row r="27" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E27" s="11">
         <v>18</v>
       </c>
       <c r="F27" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17.615739628647212</v>
       </c>
       <c r="S27" s="8">
@@ -1789,59 +1966,66 @@
         <v>11</v>
       </c>
       <c r="W27" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9526864887689632</v>
       </c>
-    </row>
-    <row r="28" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="AB27" s="8">
+        <v>19</v>
+      </c>
+      <c r="AC27" s="15">
+        <f t="shared" si="4"/>
+        <v>20.312221231043711</v>
+      </c>
+    </row>
+    <row r="28" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E28" s="11">
         <v>19</v>
       </c>
       <c r="F28" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.594391830238724</v>
       </c>
       <c r="V28" s="8">
         <v>12</v>
       </c>
       <c r="W28" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7899626147048828</v>
       </c>
     </row>
-    <row r="29" spans="5:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:29" x14ac:dyDescent="0.25">
       <c r="V29" s="8">
         <v>13</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6522731828045072</v>
       </c>
     </row>
-    <row r="30" spans="5:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:29" x14ac:dyDescent="0.25">
       <c r="V30" s="8">
         <v>14</v>
       </c>
       <c r="W30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5342536697470426</v>
       </c>
     </row>
-    <row r="31" spans="5:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:29" x14ac:dyDescent="0.25">
       <c r="V31" s="8">
         <v>15</v>
       </c>
       <c r="W31" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4319700917639062</v>
       </c>
     </row>
-    <row r="32" spans="5:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:29" x14ac:dyDescent="0.25">
       <c r="V32" s="8">
         <v>16</v>
       </c>
       <c r="W32" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3424719610286622</v>
       </c>
     </row>
@@ -1850,7 +2034,7 @@
         <v>17</v>
       </c>
       <c r="W33" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2635030221446233</v>
       </c>
     </row>
@@ -1859,7 +2043,7 @@
         <v>18</v>
       </c>
       <c r="W34" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1933084098032554</v>
       </c>
     </row>
@@ -1876,4 +2060,1876 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CE4329-F75A-40A8-A714-BE9E4557CEAA}">
+  <dimension ref="A1:AC44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y24" sqref="Y24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" customWidth="1"/>
+    <col min="20" max="20" width="14" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" customWidth="1"/>
+    <col min="23" max="24" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2">
+        <v>226.88</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>22320</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2">
+        <v>12</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W3" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="3"/>
+      <c r="M4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="9">
+        <f>B4*N2*B1*F5/J3</f>
+        <v>2.8359999999999999</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <f>0.3*B3</f>
+        <v>5.7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="9">
+        <f>B4*J2*B1*F5/J3</f>
+        <v>1.81504</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="9">
+        <f>F2*F3*F5*Q2*B1*B7/Q3</f>
+        <v>612.63952640000002</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <f>0.15*B3</f>
+        <v>2.85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2"/>
+      <c r="M6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" s="9">
+        <f>T2*T3*B2*J3*F5*T4</f>
+        <v>6.4281600000000001</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC6" s="9">
+        <f>AC2*B2*F5/(AC3*AC4)</f>
+        <v>680.94915254237287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6">
+        <f>B5+B6+B3</f>
+        <v>27.55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="9">
+        <f>F2*F3*F4*F5*B1/B7</f>
+        <v>1.0326951724137929</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="8">
+        <v>1</v>
+      </c>
+      <c r="N7" s="15">
+        <f>M7*$N$4</f>
+        <v>2.8359999999999999</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="W7" s="8">
+        <v>12000</v>
+      </c>
+      <c r="X7" s="8">
+        <v>540</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>3600</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="I8" s="8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="15">
+        <f>I8*$J$5</f>
+        <v>1.81504</v>
+      </c>
+      <c r="M8" s="8">
+        <v>2</v>
+      </c>
+      <c r="N8" s="15">
+        <f t="shared" ref="N8:N34" si="0">M8*$N$4</f>
+        <v>5.6719999999999997</v>
+      </c>
+      <c r="P8" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="15">
+        <f>$Q$5/P8</f>
+        <v>612.63952640000002</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W8" s="8">
+        <v>120</v>
+      </c>
+      <c r="X8" s="8">
+        <v>200</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>150</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC8" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="E9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="8">
+        <v>2</v>
+      </c>
+      <c r="J9" s="15">
+        <f t="shared" ref="J9:J35" si="1">I9*$J$5</f>
+        <v>3.63008</v>
+      </c>
+      <c r="M9" s="8">
+        <v>3</v>
+      </c>
+      <c r="N9" s="15">
+        <f t="shared" si="0"/>
+        <v>8.5079999999999991</v>
+      </c>
+      <c r="P9" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="15">
+        <f t="shared" ref="Q9:Q25" si="2">$Q$5/P9</f>
+        <v>306.31976320000001</v>
+      </c>
+      <c r="S9" s="8">
+        <v>1</v>
+      </c>
+      <c r="T9" s="15">
+        <f>$T$6/S9</f>
+        <v>6.4281600000000001</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W9" s="8">
+        <v>300</v>
+      </c>
+      <c r="X9" s="8">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>500</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="15">
+        <f>$AC$6/AB9</f>
+        <v>680.94915254237287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12">
+        <f>E10*$F$7</f>
+        <v>1.0326951724137929</v>
+      </c>
+      <c r="I10" s="8">
+        <v>3</v>
+      </c>
+      <c r="J10" s="15">
+        <f t="shared" si="1"/>
+        <v>5.4451200000000002</v>
+      </c>
+      <c r="M10" s="8">
+        <v>4</v>
+      </c>
+      <c r="N10" s="15">
+        <f t="shared" si="0"/>
+        <v>11.343999999999999</v>
+      </c>
+      <c r="P10" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="15">
+        <f t="shared" si="2"/>
+        <v>204.21317546666668</v>
+      </c>
+      <c r="S10" s="8">
+        <v>2</v>
+      </c>
+      <c r="T10" s="15">
+        <f t="shared" ref="T10:T36" si="3">$T$6/S10</f>
+        <v>3.21408</v>
+      </c>
+      <c r="AB10" s="8">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="15">
+        <f t="shared" ref="AC10:AC36" si="4">$AC$6/AB10</f>
+        <v>340.47457627118644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="E11" s="11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" ref="F11:F37" si="5">E11*$F$7</f>
+        <v>2.0653903448275859</v>
+      </c>
+      <c r="I11" s="8">
+        <v>4</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="1"/>
+        <v>7.2601599999999999</v>
+      </c>
+      <c r="M11" s="8">
+        <v>5</v>
+      </c>
+      <c r="N11" s="15">
+        <f t="shared" si="0"/>
+        <v>14.18</v>
+      </c>
+      <c r="P11" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="15">
+        <f t="shared" si="2"/>
+        <v>153.15988160000001</v>
+      </c>
+      <c r="S11" s="8">
+        <v>3</v>
+      </c>
+      <c r="T11" s="15">
+        <f t="shared" si="3"/>
+        <v>2.1427200000000002</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="X11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB11" s="8">
+        <v>3</v>
+      </c>
+      <c r="AC11" s="15">
+        <f t="shared" si="4"/>
+        <v>226.98305084745763</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E12" s="11">
+        <v>3</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" si="5"/>
+        <v>3.0980855172413788</v>
+      </c>
+      <c r="I12" s="8">
+        <v>5</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="1"/>
+        <v>9.0752000000000006</v>
+      </c>
+      <c r="M12" s="8">
+        <v>6</v>
+      </c>
+      <c r="N12" s="15">
+        <f t="shared" si="0"/>
+        <v>17.015999999999998</v>
+      </c>
+      <c r="P12" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="15">
+        <f t="shared" si="2"/>
+        <v>122.52790528</v>
+      </c>
+      <c r="S12" s="8">
+        <v>4</v>
+      </c>
+      <c r="T12" s="15">
+        <f t="shared" si="3"/>
+        <v>1.60704</v>
+      </c>
+      <c r="V12" s="15">
+        <f>(W7*F5*(W8/1000))/(W9*W2*W4*W5)</f>
+        <v>10.875722215928402</v>
+      </c>
+      <c r="W12" s="15">
+        <f>(X7*F5*(X8/1000))/(X9*W2*W4*W5)</f>
+        <v>12.235187492919451</v>
+      </c>
+      <c r="X12" s="15">
+        <f>(Y7*F5*(Y8/1000))/(Y9*W2*W4*W5)</f>
+        <v>2.4470374985838905</v>
+      </c>
+      <c r="AB12" s="8">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="15">
+        <f t="shared" si="4"/>
+        <v>170.23728813559322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="11">
+        <v>4</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="5"/>
+        <v>4.1307806896551718</v>
+      </c>
+      <c r="I13" s="8">
+        <v>6</v>
+      </c>
+      <c r="J13" s="15">
+        <f t="shared" si="1"/>
+        <v>10.89024</v>
+      </c>
+      <c r="M13" s="8">
+        <v>7</v>
+      </c>
+      <c r="N13" s="15">
+        <f t="shared" si="0"/>
+        <v>19.852</v>
+      </c>
+      <c r="P13" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="15">
+        <f t="shared" si="2"/>
+        <v>102.10658773333334</v>
+      </c>
+      <c r="S13" s="8">
+        <v>5</v>
+      </c>
+      <c r="T13" s="15">
+        <f t="shared" si="3"/>
+        <v>1.2856320000000001</v>
+      </c>
+      <c r="AB13" s="8">
+        <v>5</v>
+      </c>
+      <c r="AC13" s="15">
+        <f t="shared" si="4"/>
+        <v>136.18983050847459</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E14" s="11">
+        <v>5</v>
+      </c>
+      <c r="F14" s="12">
+        <f t="shared" si="5"/>
+        <v>5.1634758620689647</v>
+      </c>
+      <c r="I14" s="8">
+        <v>7</v>
+      </c>
+      <c r="J14" s="15">
+        <f t="shared" si="1"/>
+        <v>12.70528</v>
+      </c>
+      <c r="M14" s="8">
+        <v>8</v>
+      </c>
+      <c r="N14" s="15">
+        <f t="shared" si="0"/>
+        <v>22.687999999999999</v>
+      </c>
+      <c r="P14" s="8">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="15">
+        <f t="shared" si="2"/>
+        <v>87.519932342857146</v>
+      </c>
+      <c r="S14" s="8">
+        <v>6</v>
+      </c>
+      <c r="T14" s="15">
+        <f t="shared" si="3"/>
+        <v>1.0713600000000001</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W14" s="9">
+        <f>V12+W12+X12</f>
+        <v>25.557947207431745</v>
+      </c>
+      <c r="AB14" s="8">
+        <v>6</v>
+      </c>
+      <c r="AC14" s="15">
+        <f t="shared" si="4"/>
+        <v>113.49152542372882</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E15" s="11">
+        <v>6</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="5"/>
+        <v>6.1961710344827576</v>
+      </c>
+      <c r="I15" s="8">
+        <v>8</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="1"/>
+        <v>14.52032</v>
+      </c>
+      <c r="M15" s="8">
+        <v>9</v>
+      </c>
+      <c r="N15" s="15">
+        <f t="shared" si="0"/>
+        <v>25.523999999999997</v>
+      </c>
+      <c r="P15" s="8">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="15">
+        <f t="shared" si="2"/>
+        <v>76.579940800000003</v>
+      </c>
+      <c r="S15" s="8">
+        <v>7</v>
+      </c>
+      <c r="T15" s="15">
+        <f t="shared" si="3"/>
+        <v>0.91830857142857147</v>
+      </c>
+      <c r="AB15" s="8">
+        <v>7</v>
+      </c>
+      <c r="AC15" s="15">
+        <f t="shared" si="4"/>
+        <v>97.278450363196129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E16" s="11">
+        <v>7</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="5"/>
+        <v>7.2288662068965506</v>
+      </c>
+      <c r="I16" s="8">
+        <v>9</v>
+      </c>
+      <c r="J16" s="15">
+        <f t="shared" si="1"/>
+        <v>16.335360000000001</v>
+      </c>
+      <c r="M16" s="8">
+        <v>10</v>
+      </c>
+      <c r="N16" s="15">
+        <f t="shared" si="0"/>
+        <v>28.36</v>
+      </c>
+      <c r="P16" s="8">
+        <v>9</v>
+      </c>
+      <c r="Q16" s="15">
+        <f t="shared" si="2"/>
+        <v>68.071058488888895</v>
+      </c>
+      <c r="S16" s="8">
+        <v>8</v>
+      </c>
+      <c r="T16" s="15">
+        <f t="shared" si="3"/>
+        <v>0.80352000000000001</v>
+      </c>
+      <c r="V16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="W16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB16" s="8">
+        <v>8</v>
+      </c>
+      <c r="AC16" s="15">
+        <f t="shared" si="4"/>
+        <v>85.118644067796609</v>
+      </c>
+    </row>
+    <row r="17" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E17" s="11">
+        <v>8</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="5"/>
+        <v>8.2615613793103435</v>
+      </c>
+      <c r="I17" s="8">
+        <v>10</v>
+      </c>
+      <c r="J17" s="15">
+        <f t="shared" si="1"/>
+        <v>18.150400000000001</v>
+      </c>
+      <c r="M17" s="8">
+        <v>11</v>
+      </c>
+      <c r="N17" s="15">
+        <f t="shared" si="0"/>
+        <v>31.195999999999998</v>
+      </c>
+      <c r="P17" s="8">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="15">
+        <f t="shared" si="2"/>
+        <v>61.263952639999999</v>
+      </c>
+      <c r="S17" s="8">
+        <v>9</v>
+      </c>
+      <c r="T17" s="15">
+        <f t="shared" si="3"/>
+        <v>0.71423999999999999</v>
+      </c>
+      <c r="V17" s="8">
+        <v>1</v>
+      </c>
+      <c r="W17" s="15">
+        <f>$W$14/V17</f>
+        <v>25.557947207431745</v>
+      </c>
+      <c r="AB17" s="8">
+        <v>9</v>
+      </c>
+      <c r="AC17" s="15">
+        <f t="shared" si="4"/>
+        <v>75.66101694915254</v>
+      </c>
+    </row>
+    <row r="18" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E18" s="11">
+        <v>9</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="5"/>
+        <v>9.2942565517241356</v>
+      </c>
+      <c r="I18" s="8">
+        <v>11</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" si="1"/>
+        <v>19.965440000000001</v>
+      </c>
+      <c r="M18" s="8">
+        <v>12</v>
+      </c>
+      <c r="N18" s="15">
+        <f t="shared" si="0"/>
+        <v>34.031999999999996</v>
+      </c>
+      <c r="P18" s="8">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="15">
+        <f t="shared" si="2"/>
+        <v>55.694502400000005</v>
+      </c>
+      <c r="S18" s="8">
+        <v>10</v>
+      </c>
+      <c r="T18" s="15">
+        <f t="shared" si="3"/>
+        <v>0.64281600000000005</v>
+      </c>
+      <c r="V18" s="8">
+        <v>2</v>
+      </c>
+      <c r="W18" s="15">
+        <f t="shared" ref="W18:W34" si="6">$W$14/V18</f>
+        <v>12.778973603715873</v>
+      </c>
+      <c r="AB18" s="8">
+        <v>10</v>
+      </c>
+      <c r="AC18" s="15">
+        <f t="shared" si="4"/>
+        <v>68.094915254237293</v>
+      </c>
+    </row>
+    <row r="19" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E19" s="11">
+        <v>10</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="5"/>
+        <v>10.326951724137929</v>
+      </c>
+      <c r="I19" s="8">
+        <v>12</v>
+      </c>
+      <c r="J19" s="15">
+        <f>I19*$J$5</f>
+        <v>21.780480000000001</v>
+      </c>
+      <c r="M19" s="8">
+        <v>13</v>
+      </c>
+      <c r="N19" s="15">
+        <f t="shared" si="0"/>
+        <v>36.867999999999995</v>
+      </c>
+      <c r="P19" s="8">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="15">
+        <f t="shared" si="2"/>
+        <v>51.053293866666671</v>
+      </c>
+      <c r="S19" s="8">
+        <v>11</v>
+      </c>
+      <c r="T19" s="15">
+        <f t="shared" si="3"/>
+        <v>0.5843781818181818</v>
+      </c>
+      <c r="V19" s="8">
+        <v>3</v>
+      </c>
+      <c r="W19" s="15">
+        <f t="shared" si="6"/>
+        <v>8.5193157358105811</v>
+      </c>
+      <c r="AB19" s="8">
+        <v>11</v>
+      </c>
+      <c r="AC19" s="15">
+        <f t="shared" si="4"/>
+        <v>61.90446841294299</v>
+      </c>
+    </row>
+    <row r="20" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E20" s="11">
+        <v>11</v>
+      </c>
+      <c r="F20" s="12">
+        <f t="shared" si="5"/>
+        <v>11.359646896551723</v>
+      </c>
+      <c r="I20" s="8">
+        <v>13</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="1"/>
+        <v>23.59552</v>
+      </c>
+      <c r="M20" s="8">
+        <v>14</v>
+      </c>
+      <c r="N20" s="15">
+        <f t="shared" si="0"/>
+        <v>39.704000000000001</v>
+      </c>
+      <c r="P20" s="8">
+        <v>13</v>
+      </c>
+      <c r="Q20" s="15">
+        <f t="shared" si="2"/>
+        <v>47.12611741538462</v>
+      </c>
+      <c r="S20" s="8">
+        <v>12</v>
+      </c>
+      <c r="T20" s="15">
+        <f t="shared" si="3"/>
+        <v>0.53568000000000005</v>
+      </c>
+      <c r="V20" s="8">
+        <v>4</v>
+      </c>
+      <c r="W20" s="15">
+        <f t="shared" si="6"/>
+        <v>6.3894868018579363</v>
+      </c>
+      <c r="AB20" s="8">
+        <v>12</v>
+      </c>
+      <c r="AC20" s="15">
+        <f t="shared" si="4"/>
+        <v>56.745762711864408</v>
+      </c>
+    </row>
+    <row r="21" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E21" s="11">
+        <v>12</v>
+      </c>
+      <c r="F21" s="12">
+        <f t="shared" si="5"/>
+        <v>12.392342068965515</v>
+      </c>
+      <c r="I21" s="8">
+        <v>14</v>
+      </c>
+      <c r="J21" s="15">
+        <f t="shared" si="1"/>
+        <v>25.41056</v>
+      </c>
+      <c r="M21" s="8">
+        <v>15</v>
+      </c>
+      <c r="N21" s="15">
+        <f t="shared" si="0"/>
+        <v>42.54</v>
+      </c>
+      <c r="P21" s="8">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="15">
+        <f t="shared" si="2"/>
+        <v>43.759966171428573</v>
+      </c>
+      <c r="S21" s="8">
+        <v>13</v>
+      </c>
+      <c r="T21" s="15">
+        <f t="shared" si="3"/>
+        <v>0.49447384615384615</v>
+      </c>
+      <c r="V21" s="8">
+        <v>5</v>
+      </c>
+      <c r="W21" s="15">
+        <f t="shared" si="6"/>
+        <v>5.1115894414863492</v>
+      </c>
+      <c r="AB21" s="8">
+        <v>13</v>
+      </c>
+      <c r="AC21" s="15">
+        <f t="shared" si="4"/>
+        <v>52.380704041720989</v>
+      </c>
+    </row>
+    <row r="22" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E22" s="11">
+        <v>13</v>
+      </c>
+      <c r="F22" s="12">
+        <f t="shared" si="5"/>
+        <v>13.425037241379307</v>
+      </c>
+      <c r="I22" s="8">
+        <v>15</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" si="1"/>
+        <v>27.2256</v>
+      </c>
+      <c r="M22" s="8">
+        <v>16</v>
+      </c>
+      <c r="N22" s="15">
+        <f t="shared" si="0"/>
+        <v>45.375999999999998</v>
+      </c>
+      <c r="P22" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="15">
+        <f t="shared" si="2"/>
+        <v>40.842635093333335</v>
+      </c>
+      <c r="S22" s="8">
+        <v>14</v>
+      </c>
+      <c r="T22" s="15">
+        <f t="shared" si="3"/>
+        <v>0.45915428571428574</v>
+      </c>
+      <c r="V22" s="8">
+        <v>6</v>
+      </c>
+      <c r="W22" s="15">
+        <f t="shared" si="6"/>
+        <v>4.2596578679052906</v>
+      </c>
+      <c r="AB22" s="8">
+        <v>14</v>
+      </c>
+      <c r="AC22" s="15">
+        <f t="shared" si="4"/>
+        <v>48.639225181598064</v>
+      </c>
+    </row>
+    <row r="23" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E23" s="11">
+        <v>14</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="5"/>
+        <v>14.457732413793101</v>
+      </c>
+      <c r="I23" s="8">
+        <v>16</v>
+      </c>
+      <c r="J23" s="15">
+        <f t="shared" si="1"/>
+        <v>29.04064</v>
+      </c>
+      <c r="M23" s="8">
+        <v>17</v>
+      </c>
+      <c r="N23" s="15">
+        <f t="shared" si="0"/>
+        <v>48.211999999999996</v>
+      </c>
+      <c r="P23" s="8">
+        <v>16</v>
+      </c>
+      <c r="Q23" s="15">
+        <f t="shared" si="2"/>
+        <v>38.289970400000001</v>
+      </c>
+      <c r="S23" s="8">
+        <v>15</v>
+      </c>
+      <c r="T23" s="15">
+        <f t="shared" si="3"/>
+        <v>0.42854399999999998</v>
+      </c>
+      <c r="V23" s="8">
+        <v>7</v>
+      </c>
+      <c r="W23" s="15">
+        <f t="shared" si="6"/>
+        <v>3.6511353153473922</v>
+      </c>
+      <c r="AB23" s="8">
+        <v>15</v>
+      </c>
+      <c r="AC23" s="15">
+        <f t="shared" si="4"/>
+        <v>45.396610169491524</v>
+      </c>
+    </row>
+    <row r="24" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E24" s="11">
+        <v>15</v>
+      </c>
+      <c r="F24" s="12">
+        <f t="shared" si="5"/>
+        <v>15.490427586206895</v>
+      </c>
+      <c r="I24" s="8">
+        <v>17</v>
+      </c>
+      <c r="J24" s="15">
+        <f t="shared" si="1"/>
+        <v>30.85568</v>
+      </c>
+      <c r="M24" s="8">
+        <v>18</v>
+      </c>
+      <c r="N24" s="15">
+        <f t="shared" si="0"/>
+        <v>51.047999999999995</v>
+      </c>
+      <c r="P24" s="8">
+        <v>17</v>
+      </c>
+      <c r="Q24" s="15">
+        <f t="shared" si="2"/>
+        <v>36.037619200000002</v>
+      </c>
+      <c r="S24" s="8">
+        <v>16</v>
+      </c>
+      <c r="T24" s="15">
+        <f t="shared" si="3"/>
+        <v>0.40176000000000001</v>
+      </c>
+      <c r="V24" s="8">
+        <v>8</v>
+      </c>
+      <c r="W24" s="15">
+        <f t="shared" si="6"/>
+        <v>3.1947434009289681</v>
+      </c>
+      <c r="AB24" s="8">
+        <v>16</v>
+      </c>
+      <c r="AC24" s="15">
+        <f t="shared" si="4"/>
+        <v>42.559322033898304</v>
+      </c>
+    </row>
+    <row r="25" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E25" s="11">
+        <v>16</v>
+      </c>
+      <c r="F25" s="12">
+        <f t="shared" si="5"/>
+        <v>16.523122758620687</v>
+      </c>
+      <c r="I25" s="8">
+        <v>18</v>
+      </c>
+      <c r="J25" s="15">
+        <f t="shared" si="1"/>
+        <v>32.670720000000003</v>
+      </c>
+      <c r="M25" s="8">
+        <v>19</v>
+      </c>
+      <c r="N25" s="15">
+        <f t="shared" si="0"/>
+        <v>53.884</v>
+      </c>
+      <c r="P25" s="8">
+        <v>18</v>
+      </c>
+      <c r="Q25" s="15">
+        <f t="shared" si="2"/>
+        <v>34.035529244444447</v>
+      </c>
+      <c r="S25" s="8">
+        <v>17</v>
+      </c>
+      <c r="T25" s="15">
+        <f t="shared" si="3"/>
+        <v>0.37812705882352943</v>
+      </c>
+      <c r="V25" s="8">
+        <v>9</v>
+      </c>
+      <c r="W25" s="15">
+        <f t="shared" si="6"/>
+        <v>2.8397719119368605</v>
+      </c>
+      <c r="AB25" s="8">
+        <v>17</v>
+      </c>
+      <c r="AC25" s="15">
+        <f t="shared" si="4"/>
+        <v>40.055832502492521</v>
+      </c>
+    </row>
+    <row r="26" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E26" s="11">
+        <v>17</v>
+      </c>
+      <c r="F26" s="12">
+        <f t="shared" si="5"/>
+        <v>17.555817931034479</v>
+      </c>
+      <c r="I26" s="8">
+        <v>19</v>
+      </c>
+      <c r="J26" s="15">
+        <f t="shared" si="1"/>
+        <v>34.485759999999999</v>
+      </c>
+      <c r="M26" s="8">
+        <v>20</v>
+      </c>
+      <c r="N26" s="15">
+        <f t="shared" si="0"/>
+        <v>56.72</v>
+      </c>
+      <c r="P26" s="8">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="15">
+        <f>$Q$5/P26</f>
+        <v>32.244185600000002</v>
+      </c>
+      <c r="S26" s="8">
+        <v>18</v>
+      </c>
+      <c r="T26" s="15">
+        <f t="shared" si="3"/>
+        <v>0.35711999999999999</v>
+      </c>
+      <c r="V26" s="8">
+        <v>10</v>
+      </c>
+      <c r="W26" s="15">
+        <f t="shared" si="6"/>
+        <v>2.5557947207431746</v>
+      </c>
+      <c r="AB26" s="8">
+        <v>18</v>
+      </c>
+      <c r="AC26" s="15">
+        <f t="shared" si="4"/>
+        <v>37.83050847457627</v>
+      </c>
+    </row>
+    <row r="27" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E27" s="11">
+        <v>18</v>
+      </c>
+      <c r="F27" s="12">
+        <f t="shared" si="5"/>
+        <v>18.588513103448271</v>
+      </c>
+      <c r="I27" s="8">
+        <v>20</v>
+      </c>
+      <c r="J27" s="15">
+        <f t="shared" si="1"/>
+        <v>36.300800000000002</v>
+      </c>
+      <c r="M27" s="8">
+        <v>21</v>
+      </c>
+      <c r="N27" s="15">
+        <f t="shared" si="0"/>
+        <v>59.555999999999997</v>
+      </c>
+      <c r="P27" s="8">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="15">
+        <f t="shared" ref="Q27:Q35" si="7">$Q$5/P27</f>
+        <v>30.63197632</v>
+      </c>
+      <c r="S27" s="8">
+        <v>19</v>
+      </c>
+      <c r="T27" s="15">
+        <f t="shared" si="3"/>
+        <v>0.33832421052631578</v>
+      </c>
+      <c r="V27" s="8">
+        <v>11</v>
+      </c>
+      <c r="W27" s="15">
+        <f t="shared" si="6"/>
+        <v>2.3234497461301586</v>
+      </c>
+      <c r="AB27" s="8">
+        <v>19</v>
+      </c>
+      <c r="AC27" s="15">
+        <f t="shared" si="4"/>
+        <v>35.839429081177521</v>
+      </c>
+    </row>
+    <row r="28" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E28" s="11">
+        <v>19</v>
+      </c>
+      <c r="F28" s="12">
+        <f t="shared" si="5"/>
+        <v>19.621208275862067</v>
+      </c>
+      <c r="I28" s="8">
+        <v>21</v>
+      </c>
+      <c r="J28" s="15">
+        <f t="shared" si="1"/>
+        <v>38.115839999999999</v>
+      </c>
+      <c r="M28" s="8">
+        <v>22</v>
+      </c>
+      <c r="N28" s="15">
+        <f t="shared" si="0"/>
+        <v>62.391999999999996</v>
+      </c>
+      <c r="P28" s="8">
+        <v>21</v>
+      </c>
+      <c r="Q28" s="15">
+        <f t="shared" si="7"/>
+        <v>29.173310780952381</v>
+      </c>
+      <c r="S28" s="8">
+        <v>20</v>
+      </c>
+      <c r="T28" s="15">
+        <f t="shared" si="3"/>
+        <v>0.32140800000000003</v>
+      </c>
+      <c r="V28" s="8">
+        <v>12</v>
+      </c>
+      <c r="W28" s="15">
+        <f t="shared" si="6"/>
+        <v>2.1298289339526453</v>
+      </c>
+      <c r="AB28" s="8">
+        <v>20</v>
+      </c>
+      <c r="AC28" s="15">
+        <f t="shared" si="4"/>
+        <v>34.047457627118646</v>
+      </c>
+    </row>
+    <row r="29" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E29" s="11">
+        <v>20</v>
+      </c>
+      <c r="F29" s="12">
+        <f t="shared" si="5"/>
+        <v>20.653903448275859</v>
+      </c>
+      <c r="I29" s="8">
+        <v>22</v>
+      </c>
+      <c r="J29" s="15">
+        <f t="shared" si="1"/>
+        <v>39.930880000000002</v>
+      </c>
+      <c r="M29" s="8">
+        <v>23</v>
+      </c>
+      <c r="N29" s="15">
+        <f t="shared" si="0"/>
+        <v>65.227999999999994</v>
+      </c>
+      <c r="P29" s="8">
+        <v>22</v>
+      </c>
+      <c r="Q29" s="15">
+        <f t="shared" si="7"/>
+        <v>27.847251200000002</v>
+      </c>
+      <c r="S29" s="8">
+        <v>21</v>
+      </c>
+      <c r="T29" s="15">
+        <f t="shared" si="3"/>
+        <v>0.30610285714285712</v>
+      </c>
+      <c r="V29" s="8">
+        <v>13</v>
+      </c>
+      <c r="W29" s="15">
+        <f t="shared" si="6"/>
+        <v>1.9659959390332111</v>
+      </c>
+      <c r="AB29" s="8">
+        <v>21</v>
+      </c>
+      <c r="AC29" s="15">
+        <f t="shared" si="4"/>
+        <v>32.426150121065376</v>
+      </c>
+    </row>
+    <row r="30" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E30" s="11">
+        <v>21</v>
+      </c>
+      <c r="F30" s="12">
+        <f t="shared" si="5"/>
+        <v>21.686598620689651</v>
+      </c>
+      <c r="I30" s="8">
+        <v>23</v>
+      </c>
+      <c r="J30" s="15">
+        <f t="shared" si="1"/>
+        <v>41.745919999999998</v>
+      </c>
+      <c r="M30" s="8">
+        <v>24</v>
+      </c>
+      <c r="N30" s="15">
+        <f t="shared" si="0"/>
+        <v>68.063999999999993</v>
+      </c>
+      <c r="P30" s="8">
+        <v>23</v>
+      </c>
+      <c r="Q30" s="15">
+        <f t="shared" si="7"/>
+        <v>26.636501147826088</v>
+      </c>
+      <c r="S30" s="8">
+        <v>22</v>
+      </c>
+      <c r="T30" s="15">
+        <f t="shared" si="3"/>
+        <v>0.2921890909090909</v>
+      </c>
+      <c r="V30" s="8">
+        <v>14</v>
+      </c>
+      <c r="W30" s="15">
+        <f t="shared" si="6"/>
+        <v>1.8255676576736961</v>
+      </c>
+      <c r="AB30" s="8">
+        <v>22</v>
+      </c>
+      <c r="AC30" s="15">
+        <f t="shared" si="4"/>
+        <v>30.952234206471495</v>
+      </c>
+    </row>
+    <row r="31" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E31" s="11">
+        <v>22</v>
+      </c>
+      <c r="F31" s="12">
+        <f t="shared" si="5"/>
+        <v>22.719293793103446</v>
+      </c>
+      <c r="I31" s="8">
+        <v>24</v>
+      </c>
+      <c r="J31" s="15">
+        <f t="shared" si="1"/>
+        <v>43.560960000000001</v>
+      </c>
+      <c r="M31" s="8">
+        <v>25</v>
+      </c>
+      <c r="N31" s="15">
+        <f t="shared" si="0"/>
+        <v>70.899999999999991</v>
+      </c>
+      <c r="P31" s="8">
+        <v>24</v>
+      </c>
+      <c r="Q31" s="15">
+        <f t="shared" si="7"/>
+        <v>25.526646933333335</v>
+      </c>
+      <c r="S31" s="8">
+        <v>23</v>
+      </c>
+      <c r="T31" s="15">
+        <f t="shared" si="3"/>
+        <v>0.27948521739130433</v>
+      </c>
+      <c r="V31" s="8">
+        <v>15</v>
+      </c>
+      <c r="W31" s="15">
+        <f t="shared" si="6"/>
+        <v>1.7038631471621164</v>
+      </c>
+      <c r="AB31" s="8">
+        <v>23</v>
+      </c>
+      <c r="AC31" s="15">
+        <f t="shared" si="4"/>
+        <v>29.606484893146646</v>
+      </c>
+    </row>
+    <row r="32" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E32" s="11">
+        <v>23</v>
+      </c>
+      <c r="F32" s="12">
+        <f t="shared" si="5"/>
+        <v>23.751988965517238</v>
+      </c>
+      <c r="I32" s="8">
+        <v>25</v>
+      </c>
+      <c r="J32" s="15">
+        <f t="shared" si="1"/>
+        <v>45.375999999999998</v>
+      </c>
+      <c r="M32" s="8">
+        <v>26</v>
+      </c>
+      <c r="N32" s="15">
+        <f t="shared" si="0"/>
+        <v>73.73599999999999</v>
+      </c>
+      <c r="P32" s="8">
+        <v>25</v>
+      </c>
+      <c r="Q32" s="15">
+        <f t="shared" si="7"/>
+        <v>24.505581056</v>
+      </c>
+      <c r="S32" s="8">
+        <v>24</v>
+      </c>
+      <c r="T32" s="15">
+        <f t="shared" si="3"/>
+        <v>0.26784000000000002</v>
+      </c>
+      <c r="V32" s="8">
+        <v>16</v>
+      </c>
+      <c r="W32" s="15">
+        <f t="shared" si="6"/>
+        <v>1.5973717004644841</v>
+      </c>
+      <c r="AB32" s="8">
+        <v>24</v>
+      </c>
+      <c r="AC32" s="15">
+        <f t="shared" si="4"/>
+        <v>28.372881355932204</v>
+      </c>
+    </row>
+    <row r="33" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E33" s="11">
+        <v>24</v>
+      </c>
+      <c r="F33" s="12">
+        <f t="shared" si="5"/>
+        <v>24.784684137931031</v>
+      </c>
+      <c r="I33" s="8">
+        <v>26</v>
+      </c>
+      <c r="J33" s="15">
+        <f t="shared" si="1"/>
+        <v>47.191040000000001</v>
+      </c>
+      <c r="M33" s="8">
+        <v>27</v>
+      </c>
+      <c r="N33" s="15">
+        <f t="shared" si="0"/>
+        <v>76.572000000000003</v>
+      </c>
+      <c r="P33" s="8">
+        <v>26</v>
+      </c>
+      <c r="Q33" s="15">
+        <f t="shared" si="7"/>
+        <v>23.56305870769231</v>
+      </c>
+      <c r="S33" s="8">
+        <v>25</v>
+      </c>
+      <c r="T33" s="15">
+        <f t="shared" si="3"/>
+        <v>0.25712639999999998</v>
+      </c>
+      <c r="V33" s="8">
+        <v>17</v>
+      </c>
+      <c r="W33" s="15">
+        <f t="shared" si="6"/>
+        <v>1.5034086592606908</v>
+      </c>
+      <c r="AB33" s="8">
+        <v>25</v>
+      </c>
+      <c r="AC33" s="15">
+        <f t="shared" si="4"/>
+        <v>27.237966101694916</v>
+      </c>
+    </row>
+    <row r="34" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E34" s="11">
+        <v>25</v>
+      </c>
+      <c r="F34" s="12">
+        <f t="shared" si="5"/>
+        <v>25.817379310344823</v>
+      </c>
+      <c r="I34" s="8">
+        <v>27</v>
+      </c>
+      <c r="J34" s="15">
+        <f t="shared" si="1"/>
+        <v>49.006079999999997</v>
+      </c>
+      <c r="M34" s="8">
+        <v>28</v>
+      </c>
+      <c r="N34" s="15">
+        <f t="shared" si="0"/>
+        <v>79.408000000000001</v>
+      </c>
+      <c r="P34" s="8">
+        <v>27</v>
+      </c>
+      <c r="Q34" s="15">
+        <f t="shared" si="7"/>
+        <v>22.690352829629632</v>
+      </c>
+      <c r="S34" s="8">
+        <v>26</v>
+      </c>
+      <c r="T34" s="15">
+        <f t="shared" si="3"/>
+        <v>0.24723692307692308</v>
+      </c>
+      <c r="V34" s="8">
+        <v>18</v>
+      </c>
+      <c r="W34" s="15">
+        <f t="shared" si="6"/>
+        <v>1.4198859559684303</v>
+      </c>
+      <c r="AB34" s="8">
+        <v>26</v>
+      </c>
+      <c r="AC34" s="15">
+        <f t="shared" si="4"/>
+        <v>26.190352020860495</v>
+      </c>
+    </row>
+    <row r="35" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E35" s="11">
+        <v>26</v>
+      </c>
+      <c r="F35" s="12">
+        <f t="shared" si="5"/>
+        <v>26.850074482758615</v>
+      </c>
+      <c r="I35" s="8">
+        <v>28</v>
+      </c>
+      <c r="J35" s="15">
+        <f t="shared" si="1"/>
+        <v>50.821120000000001</v>
+      </c>
+      <c r="P35" s="8">
+        <v>28</v>
+      </c>
+      <c r="Q35" s="15">
+        <f t="shared" si="7"/>
+        <v>21.879983085714287</v>
+      </c>
+      <c r="S35" s="8">
+        <v>27</v>
+      </c>
+      <c r="T35" s="15">
+        <f t="shared" si="3"/>
+        <v>0.23808000000000001</v>
+      </c>
+      <c r="V35" s="8">
+        <v>19</v>
+      </c>
+      <c r="W35" s="15">
+        <f>$W$14/V35</f>
+        <v>1.3451551161806181</v>
+      </c>
+      <c r="AB35" s="8">
+        <v>27</v>
+      </c>
+      <c r="AC35" s="15">
+        <f t="shared" si="4"/>
+        <v>25.220338983050848</v>
+      </c>
+    </row>
+    <row r="36" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E36" s="11">
+        <v>27</v>
+      </c>
+      <c r="F36" s="12">
+        <f t="shared" si="5"/>
+        <v>27.88276965517241</v>
+      </c>
+      <c r="S36" s="8">
+        <v>28</v>
+      </c>
+      <c r="T36" s="15">
+        <f t="shared" si="3"/>
+        <v>0.22957714285714287</v>
+      </c>
+      <c r="V36" s="8">
+        <v>20</v>
+      </c>
+      <c r="W36" s="15">
+        <f t="shared" ref="W36:W44" si="8">$W$14/V36</f>
+        <v>1.2778973603715873</v>
+      </c>
+      <c r="AB36" s="8">
+        <v>28</v>
+      </c>
+      <c r="AC36" s="15">
+        <f t="shared" si="4"/>
+        <v>24.319612590799032</v>
+      </c>
+    </row>
+    <row r="37" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E37" s="11">
+        <v>28</v>
+      </c>
+      <c r="F37" s="12">
+        <f t="shared" si="5"/>
+        <v>28.915464827586202</v>
+      </c>
+      <c r="V37" s="8">
+        <v>21</v>
+      </c>
+      <c r="W37" s="15">
+        <f t="shared" si="8"/>
+        <v>1.2170451051157973</v>
+      </c>
+    </row>
+    <row r="38" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="V38" s="8">
+        <v>22</v>
+      </c>
+      <c r="W38" s="15">
+        <f t="shared" si="8"/>
+        <v>1.1617248730650793</v>
+      </c>
+    </row>
+    <row r="39" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="V39" s="8">
+        <v>23</v>
+      </c>
+      <c r="W39" s="15">
+        <f t="shared" si="8"/>
+        <v>1.1112150959752933</v>
+      </c>
+    </row>
+    <row r="40" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="V40" s="8">
+        <v>24</v>
+      </c>
+      <c r="W40" s="15">
+        <f t="shared" si="8"/>
+        <v>1.0649144669763226</v>
+      </c>
+    </row>
+    <row r="41" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="V41" s="8">
+        <v>25</v>
+      </c>
+      <c r="W41" s="15">
+        <f t="shared" si="8"/>
+        <v>1.0223178882972699</v>
+      </c>
+    </row>
+    <row r="42" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="V42" s="8">
+        <v>26</v>
+      </c>
+      <c r="W42" s="15">
+        <f t="shared" si="8"/>
+        <v>0.98299796951660556</v>
+      </c>
+    </row>
+    <row r="43" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="V43" s="8">
+        <v>27</v>
+      </c>
+      <c r="W43" s="15">
+        <f t="shared" si="8"/>
+        <v>0.94659063731228688</v>
+      </c>
+    </row>
+    <row r="44" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="V44" s="8">
+        <v>28</v>
+      </c>
+      <c r="W44" s="15">
+        <f t="shared" si="8"/>
+        <v>0.91278382883684805</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Textbooks, projects/Organization and management of production activities/cgt.xlsx
+++ b/Textbooks, projects/Organization and management of production activities/cgt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74772CC8-2519-4DAB-B7E7-CA041162C5FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E58417-FE0E-469E-A201-7CA517C60263}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="86">
   <si>
     <t>S1</t>
   </si>
@@ -247,6 +247,78 @@
   <si>
     <t>S7(nan_tр)=</t>
   </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>Kг3=</t>
+  </si>
+  <si>
+    <t>α8=</t>
+  </si>
+  <si>
+    <t>S7, млн.руб</t>
+  </si>
+  <si>
+    <t>const_1=</t>
+  </si>
+  <si>
+    <t>const_2=</t>
+  </si>
+  <si>
+    <t>Eн=</t>
+  </si>
+  <si>
+    <t>S8, млн.руб</t>
+  </si>
+  <si>
+    <t>S6, млн.руб</t>
+  </si>
+  <si>
+    <t>S5, млн.руб.</t>
+  </si>
+  <si>
+    <t>S4, млн.руб.</t>
+  </si>
+  <si>
+    <t>S3, млн.руб.</t>
+  </si>
+  <si>
+    <t>S2, млн.руб.</t>
+  </si>
+  <si>
+    <t>S1, млн.руб.</t>
+  </si>
+  <si>
+    <t>K'уд</t>
+  </si>
+  <si>
+    <t>V'</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
+  <si>
+    <t>K''уд</t>
+  </si>
+  <si>
+    <t>V''</t>
+  </si>
+  <si>
+    <t>S9, млн.руб</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>K'''уд</t>
+  </si>
+  <si>
+    <t>V'''</t>
+  </si>
+  <si>
+    <t>S10, млн.руб</t>
+  </si>
 </sst>
 </file>
 
@@ -255,12 +327,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -323,9 +403,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -370,6 +450,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -385,6 +468,4038 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>var_4!$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S1, млн.руб.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>var_4!$E$10:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>var_4!$F$10:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.97865220159151178</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9573044031830236</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9359566047745354</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9146088063660471</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8932610079575589</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8719132095490707</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8505654111405825</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8292176127320943</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.8078698143236061</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7865220159151178</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.76517421750663</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.743826419098141</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.722478620689653</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.701130822281165</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.679783023872677</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.658435225464189</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.6370874270557</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.615739628647212</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.594391830238724</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-02B3-4191-A8B3-931688ABB5F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>var_4!$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tр, мес</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>var_4!$E$10:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>var_4!$I$8:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-02B3-4191-A8B3-931688ABB5F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>var_4!$J$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S2, млн.руб.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>var_4!$E$10:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>var_4!$J$8:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1.1768799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3537599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.53064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7075199999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8843999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.06128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2381599999999988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.4150399999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.59192</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.768799999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.945679999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.12256</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.299439999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.476319999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.653199999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.830079999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.006959999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.18384</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.360719999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-02B3-4191-A8B3-931688ABB5F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>var_4!$M$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tр, мес</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>var_4!$E$10:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>var_4!$M$7:$M$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-02B3-4191-A8B3-931688ABB5F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>var_4!$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S3, млн.руб.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>var_4!$E$10:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>var_4!$N$7:$N$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1.838875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6777500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5166250000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3555000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1943750000000009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.033250000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.872125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.711</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.549875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.388750000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.227625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.066500000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.905374999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25.744250000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27.583124999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29.422000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31.260875000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33.09975</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34.938625000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-02B3-4191-A8B3-931688ABB5F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>var_4!$P$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tр, мес</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>var_4!$E$10:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>var_4!$P$8:$P$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-02B3-4191-A8B3-931688ABB5F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>var_4!$Q$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S4, млн.руб.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>var_4!$E$10:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>var_4!$Q$8:$Q$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>271.79455160000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135.89727580000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.598183866666673</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.948637900000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.358910320000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.299091933333337</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.827793085714291</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.974318950000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.199394622222226</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.179455160000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.708595600000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.649545966666668</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.907273200000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.413896542857145</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.119636773333337</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.987159475000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.987914800000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.099697311111113</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.304976400000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-02B3-4191-A8B3-931688ABB5F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>var_4!$S$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tр, мес</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>var_4!$E$10:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>var_4!$S$9:$S$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-02B3-4191-A8B3-931688ABB5F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>var_4!$T$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S5, млн.руб.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>var_4!$E$10:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>var_4!$T$9:$T$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3.6431999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8215999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2143999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91079999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72863999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60719999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52045714285714284</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45539999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.40479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36431999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.33119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.30359999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28024615384615381</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26022857142857142</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.24287999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.22769999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.21430588235294115</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.2024</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19174736842105261</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-02B3-4191-A8B3-931688ABB5F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>var_4!$V$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tр, мес</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>var_4!$E$10:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>var_4!$V$17:$V$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-02B3-4191-A8B3-931688ABB5F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>var_4!$W$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S6, млн.руб</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>var_4!$E$10:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>var_4!$W$17:$W$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>21.479551376458595</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.739775688229297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1598504588195313</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3698878441146487</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2959102752917193</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5799252294097657</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0685073394940852</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6849439220573244</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3866168196065107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1479551376458597</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9526864887689632</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7899626147048828</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6522731828045072</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5342536697470426</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4319700917639062</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3424719610286622</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2635030221446233</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1933084098032554</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1305027040241367</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-02B3-4191-A8B3-931688ABB5F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>var_4!$AB$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tр, мес</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>var_4!$E$10:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>var_4!$AB$9:$AB$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-02B3-4191-A8B3-931688ABB5F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>var_4!$AC$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S7, млн.руб</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>var_4!$E$10:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>var_4!$AC$9:$AC$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>385.93220338983053</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>192.96610169491527</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.64406779661019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.483050847457633</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.186440677966104</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.322033898305094</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.133171912832935</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48.241525423728817</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42.881355932203391</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.593220338983052</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35.084745762711869</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32.161016949152547</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.687092568448502</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27.566585956416468</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.728813559322035</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.120762711864408</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.701894317048854</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.440677966101696</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.312221231043711</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-02B3-4191-A8B3-931688ABB5F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>var_4!$AE$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tр, мес</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>var_4!$E$10:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>var_4!$AE$13:$AE$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-02B3-4191-A8B3-931688ABB5F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>var_4!$AF$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S8, млн.руб</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>var_4!$E$10:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>var_4!$AF$13:$AF$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>145.29741649919998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.648708249599991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.432472166399997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.324354124799996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.059483299839997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.216236083199998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.756773785599997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.162177062399998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.144157388799997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.529741649919998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.208856045381816</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.108118041599999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.176724346092307</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.378386892799998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.6864944332799983</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.0810885311999989</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.5469068528941161</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.0720786943999983</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.6472324473263145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-02B3-4191-A8B3-931688ABB5F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>var_4!$AH$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tр, мес</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>var_4!$E$10:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>var_4!$AH$9:$AH$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-02B3-4191-A8B3-931688ABB5F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>var_4!$AI$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S9, млн.руб</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>var_4!$E$10:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>var_4!$AI$9:$AI$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>17.570724249599998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7853621247999989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8569080831999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3926810623999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5141448499199996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9284540415999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5101034642285711</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1963405311999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9523026943999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7570724249599998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5973385681454544</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4642270207999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3515941730461536</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2550517321142856</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.17138161664</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0981702655999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0335720146823528</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.97615134719999985</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.92477496050526309</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-02B3-4191-A8B3-931688ABB5F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>var_4!$AK$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tр, мес</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>var_4!$E$10:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>var_4!$AK$9:$AK$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-02B3-4191-A8B3-931688ABB5F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>var_4!$AL$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S10, млн.руб</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>var_4!$E$10:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>var_4!$AL$9:$AL$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>42.6795061248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.3397530624</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.2265020416</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.6698765312</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5359012249599999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1132510207999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0970723035428573</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3349382656</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7421673471999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.26795061248</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8799551022545455</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5566255104</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2830389326769231</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0485361517714287</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.84530040832</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6674691328</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5105591838117647</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.3710836735999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2462897960421051</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-02B3-4191-A8B3-931688ABB5F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="493515072"/>
+        <c:axId val="494055680"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="493515072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494055680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="494055680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493515072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A3457D5-984A-492F-B347-CD5E353AE310}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -650,27 +4765,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC35"/>
+  <dimension ref="A1:AL35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="S50" sqref="S50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
     <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
     <col min="16" max="16" width="15.28515625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
     <col min="19" max="19" width="12.7109375" customWidth="1"/>
     <col min="20" max="20" width="14" customWidth="1"/>
     <col min="22" max="22" width="12.42578125" customWidth="1"/>
     <col min="23" max="24" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14" customWidth="1"/>
     <col min="28" max="28" width="12.7109375" customWidth="1"/>
+    <col min="29" max="29" width="12.42578125" customWidth="1"/>
+    <col min="32" max="32" width="13.140625" customWidth="1"/>
+    <col min="35" max="35" width="16.140625" customWidth="1"/>
+    <col min="38" max="38" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -702,8 +4825,17 @@
       <c r="AB1" t="s">
         <v>57</v>
       </c>
+      <c r="AE1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -757,8 +4889,14 @@
       <c r="AC2" s="2">
         <v>0.03</v>
       </c>
+      <c r="AE2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -806,8 +4944,26 @@
       <c r="AC3" s="2">
         <v>1.18</v>
       </c>
+      <c r="AE3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL3" s="8" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -848,8 +5004,26 @@
       <c r="AC4" s="2">
         <v>1</v>
       </c>
+      <c r="AE4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="AH4" s="8">
+        <v>243</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>80000</v>
+      </c>
+      <c r="AK4" s="8">
+        <v>1574</v>
+      </c>
+      <c r="AL4" s="8">
+        <v>30000</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -888,8 +5062,14 @@
       <c r="W5" s="2">
         <v>0.97</v>
       </c>
+      <c r="AE5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF5" s="8" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -906,7 +5086,7 @@
         <v>17</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="S6" s="14" t="s">
         <v>38</v>
@@ -931,8 +5111,28 @@
         <f>AC2*B2*F5/(AC3*AC4)</f>
         <v>385.93220338983053</v>
       </c>
+      <c r="AE6" s="8">
+        <v>60.6</v>
+      </c>
+      <c r="AF6" s="8">
+        <v>2300000</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI6" s="2">
+        <f>AH4*AI4*AF4/10^6</f>
+        <v>3.1103999999999998</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL6" s="2">
+        <f>AK4*AL4*AF4/10^6</f>
+        <v>7.5552000000000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -954,8 +5154,8 @@
       <c r="I7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>22</v>
+      <c r="J7" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="M7" s="8">
         <v>1</v>
@@ -968,7 +5168,7 @@
         <v>17</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="V7" s="4" t="s">
         <v>44</v>
@@ -985,8 +5185,14 @@
       <c r="Z7" t="s">
         <v>52</v>
       </c>
+      <c r="AE7" s="8">
+        <v>285</v>
+      </c>
+      <c r="AF7" s="8">
+        <v>75000</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="3"/>
       <c r="I8" s="8">
@@ -1014,7 +5220,7 @@
         <v>17</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="V8" s="4" t="s">
         <v>45</v>
@@ -1035,17 +5241,29 @@
         <v>17</v>
       </c>
       <c r="AC8" s="11" t="s">
-        <v>31</v>
+        <v>65</v>
+      </c>
+      <c r="AH8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI8" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL8" s="11" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3"/>
       <c r="E9" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I9" s="8">
         <v>2</v>
@@ -1097,8 +5315,29 @@
         <f>$AC$6/AB9</f>
         <v>385.93220338983053</v>
       </c>
+      <c r="AE9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF9" s="2">
+        <f>B1*J3*F5/(10^3*AF2*AF3)</f>
+        <v>5.6490239999999998</v>
+      </c>
+      <c r="AH9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="15">
+        <f>$AI$6*$AF$9/AH9</f>
+        <v>17.570724249599998</v>
+      </c>
+      <c r="AK9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="15">
+        <f>$AL$6*$AF$9/AK9</f>
+        <v>42.6795061248</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="3"/>
       <c r="E10" s="11">
@@ -1143,15 +5382,36 @@
         <f t="shared" ref="AC10:AC27" si="4">$AC$6/AB10</f>
         <v>192.96610169491527</v>
       </c>
+      <c r="AE10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF10" s="2">
+        <f>AE6*AF6*AF4/10^6+AE7*AF7*AF4/10^6</f>
+        <v>25.720799999999997</v>
+      </c>
+      <c r="AH10" s="8">
+        <v>2</v>
+      </c>
+      <c r="AI10" s="15">
+        <f t="shared" ref="AI10:AI27" si="5">$AI$6*$AF$9/AH10</f>
+        <v>8.7853621247999989</v>
+      </c>
+      <c r="AK10" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL10" s="15">
+        <f t="shared" ref="AL10:AL27" si="6">$AL$6*$AF$9/AK10</f>
+        <v>21.3397530624</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="3"/>
       <c r="E11" s="11">
         <v>2</v>
       </c>
       <c r="F11" s="12">
-        <f t="shared" ref="F11:F28" si="5">E11*$F$7</f>
+        <f t="shared" ref="F11:F28" si="7">E11*$F$7</f>
         <v>1.9573044031830236</v>
       </c>
       <c r="I11" s="8">
@@ -1198,13 +5458,27 @@
         <f t="shared" si="4"/>
         <v>128.64406779661019</v>
       </c>
+      <c r="AH11" s="8">
+        <v>3</v>
+      </c>
+      <c r="AI11" s="15">
+        <f t="shared" si="5"/>
+        <v>5.8569080831999996</v>
+      </c>
+      <c r="AK11" s="8">
+        <v>3</v>
+      </c>
+      <c r="AL11" s="15">
+        <f t="shared" si="6"/>
+        <v>14.2265020416</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E12" s="11">
         <v>3</v>
       </c>
       <c r="F12" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.9359566047745354</v>
       </c>
       <c r="I12" s="8">
@@ -1254,13 +5528,33 @@
         <f t="shared" si="4"/>
         <v>96.483050847457633</v>
       </c>
+      <c r="AE12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF12" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH12" s="8">
+        <v>4</v>
+      </c>
+      <c r="AI12" s="15">
+        <f t="shared" si="5"/>
+        <v>4.3926810623999994</v>
+      </c>
+      <c r="AK12" s="8">
+        <v>4</v>
+      </c>
+      <c r="AL12" s="15">
+        <f t="shared" si="6"/>
+        <v>10.6698765312</v>
+      </c>
     </row>
-    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="11">
         <v>4</v>
       </c>
       <c r="F13" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.9146088063660471</v>
       </c>
       <c r="I13" s="8">
@@ -1298,13 +5592,34 @@
         <f t="shared" si="4"/>
         <v>77.186440677966104</v>
       </c>
+      <c r="AE13" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="15">
+        <f>$AF$9*$AF$10/AE13</f>
+        <v>145.29741649919998</v>
+      </c>
+      <c r="AH13" s="8">
+        <v>5</v>
+      </c>
+      <c r="AI13" s="15">
+        <f t="shared" si="5"/>
+        <v>3.5141448499199996</v>
+      </c>
+      <c r="AK13" s="8">
+        <v>5</v>
+      </c>
+      <c r="AL13" s="15">
+        <f t="shared" si="6"/>
+        <v>8.5359012249599999</v>
+      </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E14" s="11">
         <v>5</v>
       </c>
       <c r="F14" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.8932610079575589</v>
       </c>
       <c r="I14" s="8">
@@ -1349,13 +5664,35 @@
         <f t="shared" si="4"/>
         <v>64.322033898305094</v>
       </c>
+      <c r="AE14" s="8">
+        <f>AE13+1</f>
+        <v>2</v>
+      </c>
+      <c r="AF14" s="15">
+        <f t="shared" ref="AF14:AF31" si="8">$AF$9*$AF$10/AE14</f>
+        <v>72.648708249599991</v>
+      </c>
+      <c r="AH14" s="8">
+        <v>6</v>
+      </c>
+      <c r="AI14" s="15">
+        <f t="shared" si="5"/>
+        <v>2.9284540415999998</v>
+      </c>
+      <c r="AK14" s="8">
+        <v>6</v>
+      </c>
+      <c r="AL14" s="15">
+        <f t="shared" si="6"/>
+        <v>7.1132510207999999</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E15" s="11">
         <v>6</v>
       </c>
       <c r="F15" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.8719132095490707</v>
       </c>
       <c r="I15" s="8">
@@ -1393,13 +5730,35 @@
         <f t="shared" si="4"/>
         <v>55.133171912832935</v>
       </c>
+      <c r="AE15" s="8">
+        <f t="shared" ref="AE15:AE30" si="9">AE14+1</f>
+        <v>3</v>
+      </c>
+      <c r="AF15" s="15">
+        <f t="shared" si="8"/>
+        <v>48.432472166399997</v>
+      </c>
+      <c r="AH15" s="8">
+        <v>7</v>
+      </c>
+      <c r="AI15" s="15">
+        <f t="shared" si="5"/>
+        <v>2.5101034642285711</v>
+      </c>
+      <c r="AK15" s="8">
+        <v>7</v>
+      </c>
+      <c r="AL15" s="15">
+        <f t="shared" si="6"/>
+        <v>6.0970723035428573</v>
+      </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E16" s="11">
         <v>7</v>
       </c>
       <c r="F16" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.8505654111405825</v>
       </c>
       <c r="I16" s="8">
@@ -1434,7 +5793,7 @@
         <v>17</v>
       </c>
       <c r="W16" s="11" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="AB16" s="8">
         <v>8</v>
@@ -1443,13 +5802,35 @@
         <f t="shared" si="4"/>
         <v>48.241525423728817</v>
       </c>
+      <c r="AE16" s="8">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="AF16" s="15">
+        <f t="shared" si="8"/>
+        <v>36.324354124799996</v>
+      </c>
+      <c r="AH16" s="8">
+        <v>8</v>
+      </c>
+      <c r="AI16" s="15">
+        <f t="shared" si="5"/>
+        <v>2.1963405311999997</v>
+      </c>
+      <c r="AK16" s="8">
+        <v>8</v>
+      </c>
+      <c r="AL16" s="15">
+        <f t="shared" si="6"/>
+        <v>5.3349382656</v>
+      </c>
     </row>
-    <row r="17" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E17" s="11">
         <v>8</v>
       </c>
       <c r="F17" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.8292176127320943</v>
       </c>
       <c r="I17" s="8">
@@ -1494,13 +5875,35 @@
         <f t="shared" si="4"/>
         <v>42.881355932203391</v>
       </c>
+      <c r="AE17" s="8">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="AF17" s="15">
+        <f t="shared" si="8"/>
+        <v>29.059483299839997</v>
+      </c>
+      <c r="AH17" s="8">
+        <v>9</v>
+      </c>
+      <c r="AI17" s="15">
+        <f t="shared" si="5"/>
+        <v>1.9523026943999997</v>
+      </c>
+      <c r="AK17" s="8">
+        <v>9</v>
+      </c>
+      <c r="AL17" s="15">
+        <f t="shared" si="6"/>
+        <v>4.7421673471999997</v>
+      </c>
     </row>
-    <row r="18" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E18" s="11">
         <v>9</v>
       </c>
       <c r="F18" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.8078698143236061</v>
       </c>
       <c r="I18" s="8">
@@ -1535,7 +5938,7 @@
         <v>2</v>
       </c>
       <c r="W18" s="15">
-        <f t="shared" ref="W18:W34" si="6">$W$14/V18</f>
+        <f t="shared" ref="W18:W34" si="10">$W$14/V18</f>
         <v>10.739775688229297</v>
       </c>
       <c r="AB18" s="8">
@@ -1545,13 +5948,35 @@
         <f t="shared" si="4"/>
         <v>38.593220338983052</v>
       </c>
+      <c r="AE18" s="8">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AF18" s="15">
+        <f t="shared" si="8"/>
+        <v>24.216236083199998</v>
+      </c>
+      <c r="AH18" s="8">
+        <v>10</v>
+      </c>
+      <c r="AI18" s="15">
+        <f t="shared" si="5"/>
+        <v>1.7570724249599998</v>
+      </c>
+      <c r="AK18" s="8">
+        <v>10</v>
+      </c>
+      <c r="AL18" s="15">
+        <f t="shared" si="6"/>
+        <v>4.26795061248</v>
+      </c>
     </row>
-    <row r="19" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E19" s="11">
         <v>10</v>
       </c>
       <c r="F19" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.7865220159151178</v>
       </c>
       <c r="I19" s="8">
@@ -1586,7 +6011,7 @@
         <v>3</v>
       </c>
       <c r="W19" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7.1598504588195313</v>
       </c>
       <c r="AB19" s="8">
@@ -1596,13 +6021,35 @@
         <f t="shared" si="4"/>
         <v>35.084745762711869</v>
       </c>
+      <c r="AE19" s="8">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="AF19" s="15">
+        <f t="shared" si="8"/>
+        <v>20.756773785599997</v>
+      </c>
+      <c r="AH19" s="8">
+        <v>11</v>
+      </c>
+      <c r="AI19" s="15">
+        <f t="shared" si="5"/>
+        <v>1.5973385681454544</v>
+      </c>
+      <c r="AK19" s="8">
+        <v>11</v>
+      </c>
+      <c r="AL19" s="15">
+        <f t="shared" si="6"/>
+        <v>3.8799551022545455</v>
+      </c>
     </row>
-    <row r="20" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E20" s="11">
         <v>11</v>
       </c>
       <c r="F20" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10.76517421750663</v>
       </c>
       <c r="I20" s="8">
@@ -1637,7 +6084,7 @@
         <v>4</v>
       </c>
       <c r="W20" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5.3698878441146487</v>
       </c>
       <c r="AB20" s="8">
@@ -1647,13 +6094,35 @@
         <f t="shared" si="4"/>
         <v>32.161016949152547</v>
       </c>
+      <c r="AE20" s="8">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="AF20" s="15">
+        <f t="shared" si="8"/>
+        <v>18.162177062399998</v>
+      </c>
+      <c r="AH20" s="8">
+        <v>12</v>
+      </c>
+      <c r="AI20" s="15">
+        <f t="shared" si="5"/>
+        <v>1.4642270207999999</v>
+      </c>
+      <c r="AK20" s="8">
+        <v>12</v>
+      </c>
+      <c r="AL20" s="15">
+        <f t="shared" si="6"/>
+        <v>3.5566255104</v>
+      </c>
     </row>
-    <row r="21" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E21" s="11">
         <v>12</v>
       </c>
       <c r="F21" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11.743826419098141</v>
       </c>
       <c r="I21" s="8">
@@ -1688,7 +6157,7 @@
         <v>5</v>
       </c>
       <c r="W21" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4.2959102752917193</v>
       </c>
       <c r="AB21" s="8">
@@ -1698,13 +6167,35 @@
         <f t="shared" si="4"/>
         <v>29.687092568448502</v>
       </c>
+      <c r="AE21" s="8">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="AF21" s="15">
+        <f t="shared" si="8"/>
+        <v>16.144157388799997</v>
+      </c>
+      <c r="AH21" s="8">
+        <v>13</v>
+      </c>
+      <c r="AI21" s="15">
+        <f t="shared" si="5"/>
+        <v>1.3515941730461536</v>
+      </c>
+      <c r="AK21" s="8">
+        <v>13</v>
+      </c>
+      <c r="AL21" s="15">
+        <f t="shared" si="6"/>
+        <v>3.2830389326769231</v>
+      </c>
     </row>
-    <row r="22" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E22" s="11">
         <v>13</v>
       </c>
       <c r="F22" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12.722478620689653</v>
       </c>
       <c r="I22" s="8">
@@ -1739,7 +6230,7 @@
         <v>6</v>
       </c>
       <c r="W22" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3.5799252294097657</v>
       </c>
       <c r="AB22" s="8">
@@ -1749,13 +6240,35 @@
         <f t="shared" si="4"/>
         <v>27.566585956416468</v>
       </c>
+      <c r="AE22" s="8">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="AF22" s="15">
+        <f t="shared" si="8"/>
+        <v>14.529741649919998</v>
+      </c>
+      <c r="AH22" s="8">
+        <v>14</v>
+      </c>
+      <c r="AI22" s="15">
+        <f t="shared" si="5"/>
+        <v>1.2550517321142856</v>
+      </c>
+      <c r="AK22" s="8">
+        <v>14</v>
+      </c>
+      <c r="AL22" s="15">
+        <f t="shared" si="6"/>
+        <v>3.0485361517714287</v>
+      </c>
     </row>
-    <row r="23" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E23" s="11">
         <v>14</v>
       </c>
       <c r="F23" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>13.701130822281165</v>
       </c>
       <c r="I23" s="8">
@@ -1790,7 +6303,7 @@
         <v>7</v>
       </c>
       <c r="W23" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3.0685073394940852</v>
       </c>
       <c r="AB23" s="8">
@@ -1800,13 +6313,35 @@
         <f t="shared" si="4"/>
         <v>25.728813559322035</v>
       </c>
+      <c r="AE23" s="8">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="AF23" s="15">
+        <f t="shared" si="8"/>
+        <v>13.208856045381816</v>
+      </c>
+      <c r="AH23" s="8">
+        <v>15</v>
+      </c>
+      <c r="AI23" s="15">
+        <f t="shared" si="5"/>
+        <v>1.17138161664</v>
+      </c>
+      <c r="AK23" s="8">
+        <v>15</v>
+      </c>
+      <c r="AL23" s="15">
+        <f t="shared" si="6"/>
+        <v>2.84530040832</v>
+      </c>
     </row>
-    <row r="24" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E24" s="11">
         <v>15</v>
       </c>
       <c r="F24" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>14.679783023872677</v>
       </c>
       <c r="I24" s="8">
@@ -1841,7 +6376,7 @@
         <v>8</v>
       </c>
       <c r="W24" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.6849439220573244</v>
       </c>
       <c r="AB24" s="8">
@@ -1851,13 +6386,35 @@
         <f t="shared" si="4"/>
         <v>24.120762711864408</v>
       </c>
+      <c r="AE24" s="8">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="AF24" s="15">
+        <f t="shared" si="8"/>
+        <v>12.108118041599999</v>
+      </c>
+      <c r="AH24" s="8">
+        <v>16</v>
+      </c>
+      <c r="AI24" s="15">
+        <f t="shared" si="5"/>
+        <v>1.0981702655999999</v>
+      </c>
+      <c r="AK24" s="8">
+        <v>16</v>
+      </c>
+      <c r="AL24" s="15">
+        <f t="shared" si="6"/>
+        <v>2.6674691328</v>
+      </c>
     </row>
-    <row r="25" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E25" s="11">
         <v>16</v>
       </c>
       <c r="F25" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15.658435225464189</v>
       </c>
       <c r="I25" s="8">
@@ -1892,7 +6449,7 @@
         <v>9</v>
       </c>
       <c r="W25" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.3866168196065107</v>
       </c>
       <c r="AB25" s="8">
@@ -1902,13 +6459,35 @@
         <f t="shared" si="4"/>
         <v>22.701894317048854</v>
       </c>
+      <c r="AE25" s="8">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="AF25" s="15">
+        <f t="shared" si="8"/>
+        <v>11.176724346092307</v>
+      </c>
+      <c r="AH25" s="8">
+        <v>17</v>
+      </c>
+      <c r="AI25" s="15">
+        <f t="shared" si="5"/>
+        <v>1.0335720146823528</v>
+      </c>
+      <c r="AK25" s="8">
+        <v>17</v>
+      </c>
+      <c r="AL25" s="15">
+        <f t="shared" si="6"/>
+        <v>2.5105591838117647</v>
+      </c>
     </row>
-    <row r="26" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E26" s="11">
         <v>17</v>
       </c>
       <c r="F26" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>16.6370874270557</v>
       </c>
       <c r="I26" s="8">
@@ -1936,7 +6515,7 @@
         <v>10</v>
       </c>
       <c r="W26" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.1479551376458597</v>
       </c>
       <c r="AB26" s="8">
@@ -1946,13 +6525,35 @@
         <f t="shared" si="4"/>
         <v>21.440677966101696</v>
       </c>
+      <c r="AE26" s="8">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="AF26" s="15">
+        <f t="shared" si="8"/>
+        <v>10.378386892799998</v>
+      </c>
+      <c r="AH26" s="8">
+        <v>18</v>
+      </c>
+      <c r="AI26" s="15">
+        <f t="shared" si="5"/>
+        <v>0.97615134719999985</v>
+      </c>
+      <c r="AK26" s="8">
+        <v>18</v>
+      </c>
+      <c r="AL26" s="15">
+        <f t="shared" si="6"/>
+        <v>2.3710836735999998</v>
+      </c>
     </row>
-    <row r="27" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E27" s="11">
         <v>18</v>
       </c>
       <c r="F27" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>17.615739628647212</v>
       </c>
       <c r="S27" s="8">
@@ -1966,7 +6567,7 @@
         <v>11</v>
       </c>
       <c r="W27" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.9526864887689632</v>
       </c>
       <c r="AB27" s="8">
@@ -1976,56 +6577,110 @@
         <f t="shared" si="4"/>
         <v>20.312221231043711</v>
       </c>
+      <c r="AE27" s="8">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="AF27" s="15">
+        <f t="shared" si="8"/>
+        <v>9.6864944332799983</v>
+      </c>
+      <c r="AH27" s="8">
+        <v>19</v>
+      </c>
+      <c r="AI27" s="15">
+        <f t="shared" si="5"/>
+        <v>0.92477496050526309</v>
+      </c>
+      <c r="AK27" s="8">
+        <v>19</v>
+      </c>
+      <c r="AL27" s="15">
+        <f t="shared" si="6"/>
+        <v>2.2462897960421051</v>
+      </c>
     </row>
-    <row r="28" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E28" s="11">
         <v>19</v>
       </c>
       <c r="F28" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>18.594391830238724</v>
       </c>
       <c r="V28" s="8">
         <v>12</v>
       </c>
       <c r="W28" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.7899626147048828</v>
       </c>
+      <c r="AE28" s="8">
+        <f>AE27+1</f>
+        <v>16</v>
+      </c>
+      <c r="AF28" s="15">
+        <f t="shared" si="8"/>
+        <v>9.0810885311999989</v>
+      </c>
     </row>
-    <row r="29" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:38" x14ac:dyDescent="0.25">
       <c r="V29" s="8">
         <v>13</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.6522731828045072</v>
       </c>
+      <c r="AE29" s="8">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="AF29" s="15">
+        <f t="shared" si="8"/>
+        <v>8.5469068528941161</v>
+      </c>
     </row>
-    <row r="30" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:38" x14ac:dyDescent="0.25">
       <c r="V30" s="8">
         <v>14</v>
       </c>
       <c r="W30" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.5342536697470426</v>
       </c>
+      <c r="AE30" s="8">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="AF30" s="15">
+        <f t="shared" si="8"/>
+        <v>8.0720786943999983</v>
+      </c>
     </row>
-    <row r="31" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:38" x14ac:dyDescent="0.25">
       <c r="V31" s="8">
         <v>15</v>
       </c>
       <c r="W31" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.4319700917639062</v>
       </c>
+      <c r="AE31" s="8">
+        <f>AE30+1</f>
+        <v>19</v>
+      </c>
+      <c r="AF31" s="15">
+        <f t="shared" si="8"/>
+        <v>7.6472324473263145</v>
+      </c>
     </row>
-    <row r="32" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:38" x14ac:dyDescent="0.25">
       <c r="V32" s="8">
         <v>16</v>
       </c>
       <c r="W32" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.3424719610286622</v>
       </c>
     </row>
@@ -2034,7 +6689,7 @@
         <v>17</v>
       </c>
       <c r="W33" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.2635030221446233</v>
       </c>
     </row>
@@ -2043,7 +6698,7 @@
         <v>18</v>
       </c>
       <c r="W34" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.1933084098032554</v>
       </c>
     </row>
@@ -2059,6 +6714,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Textbooks, projects/Organization and management of production activities/cgt.xlsx
+++ b/Textbooks, projects/Organization and management of production activities/cgt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E58417-FE0E-469E-A201-7CA517C60263}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B588E88-988E-4AA8-993E-EC42F7AA00E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="77">
   <si>
     <t>S1</t>
   </si>
@@ -257,9 +257,6 @@
     <t>α8=</t>
   </si>
   <si>
-    <t>S7, млн.руб</t>
-  </si>
-  <si>
     <t>const_1=</t>
   </si>
   <si>
@@ -269,27 +266,6 @@
     <t>Eн=</t>
   </si>
   <si>
-    <t>S8, млн.руб</t>
-  </si>
-  <si>
-    <t>S6, млн.руб</t>
-  </si>
-  <si>
-    <t>S5, млн.руб.</t>
-  </si>
-  <si>
-    <t>S4, млн.руб.</t>
-  </si>
-  <si>
-    <t>S3, млн.руб.</t>
-  </si>
-  <si>
-    <t>S2, млн.руб.</t>
-  </si>
-  <si>
-    <t>S1, млн.руб.</t>
-  </si>
-  <si>
     <t>K'уд</t>
   </si>
   <si>
@@ -305,9 +281,6 @@
     <t>V''</t>
   </si>
   <si>
-    <t>S9, млн.руб</t>
-  </si>
-  <si>
     <t>S10</t>
   </si>
   <si>
@@ -317,7 +290,7 @@
     <t>V'''</t>
   </si>
   <si>
-    <t>S10, млн.руб</t>
+    <t>Sобщ</t>
   </si>
 </sst>
 </file>
@@ -327,7 +300,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,6 +328,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -403,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -453,6 +433,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -474,7 +457,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
+  <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="102"/>
@@ -485,6 +468,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Определение рационального варианта возведения объекта</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27991273873416955"/>
+          <c:y val="1.462099974310563E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -497,7 +516,7 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr algn="ctr">
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -521,15 +540,15 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>var_4!$F$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>S1, млн.руб.</c:v>
+                  <c:v>S1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -537,7 +556,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -546,72 +565,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>var_4!$E$10:$E$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>var_4!$F$10:$F$28</c:f>
@@ -681,172 +634,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-02B3-4191-A8B3-931688ABB5F0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>var_4!$I$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>tр, мес</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>var_4!$E$10:$E$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>var_4!$I$8:$I$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-02B3-4191-A8B3-931688ABB5F0}"/>
+              <c16:uniqueId val="{00000001-9A52-40C5-8AE4-1A8937166EDF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -859,172 +647,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>S2, млн.руб.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>var_4!$E$10:$E$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>var_4!$J$8:$J$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1.1768799999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.3537599999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.53064</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.7075199999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.8843999999999994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.06128</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.2381599999999988</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.4150399999999994</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.59192</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.768799999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.945679999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.12256</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.299439999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.476319999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.653199999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.830079999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20.006959999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>21.18384</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>22.360719999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-02B3-4191-A8B3-931688ABB5F0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>var_4!$M$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>tр, мес</c:v>
+                  <c:v>S2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1041,134 +664,68 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>var_4!$E$10:$E$28</c:f>
+              <c:f>var_4!$J$8:$J$26</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.1768799999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.3537599999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.53064</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.7075199999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.8843999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>7.06128</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>8.2381599999999988</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>9.4150399999999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>10.59192</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>11.768799999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>12.945679999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>14.12256</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>15.299439999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>16.476319999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>17.653199999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>18.830079999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>20.006959999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>21.18384</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>var_4!$M$7:$M$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>22.360719999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1176,20 +733,20 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-02B3-4191-A8B3-931688ABB5F0}"/>
+              <c16:uniqueId val="{00000002-9A52-40C5-8AE4-1A8937166EDF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>var_4!$N$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>S3, млн.руб.</c:v>
+                  <c:v>S3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1197,337 +754,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>var_4!$E$10:$E$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>var_4!$N$7:$N$25</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1.838875</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.6777500000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.5166250000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.3555000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.1943750000000009</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.033250000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.872125</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14.711</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.549875</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18.388750000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20.227625</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22.066500000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>23.905374999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25.744250000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>27.583124999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>29.422000000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>31.260875000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>33.09975</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>34.938625000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-02B3-4191-A8B3-931688ABB5F0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>var_4!$P$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>tр, мес</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>var_4!$E$10:$E$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>var_4!$P$8:$P$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-02B3-4191-A8B3-931688ABB5F0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>var_4!$Q$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>S4, млн.руб.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent6">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -1538,134 +765,68 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>var_4!$E$10:$E$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>var_4!$Q$8:$Q$26</c:f>
+              <c:f>var_4!$N$7:$N$25</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>271.79455160000003</c:v>
+                  <c:v>1.838875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>135.89727580000002</c:v>
+                  <c:v>3.6777500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90.598183866666673</c:v>
+                  <c:v>5.5166250000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67.948637900000008</c:v>
+                  <c:v>7.3555000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54.358910320000007</c:v>
+                  <c:v>9.1943750000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.299091933333337</c:v>
+                  <c:v>11.033250000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38.827793085714291</c:v>
+                  <c:v>12.872125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.974318950000004</c:v>
+                  <c:v>14.711</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.199394622222226</c:v>
+                  <c:v>16.549875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27.179455160000003</c:v>
+                  <c:v>18.388750000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.708595600000002</c:v>
+                  <c:v>20.227625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.649545966666668</c:v>
+                  <c:v>22.066500000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.907273200000002</c:v>
+                  <c:v>23.905374999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19.413896542857145</c:v>
+                  <c:v>25.744250000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.119636773333337</c:v>
+                  <c:v>27.583124999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.987159475000002</c:v>
+                  <c:v>29.422000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.987914800000002</c:v>
+                  <c:v>31.260875000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15.099697311111113</c:v>
+                  <c:v>33.09975</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14.304976400000001</c:v>
+                  <c:v>34.938625000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1673,20 +834,20 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-02B3-4191-A8B3-931688ABB5F0}"/>
+              <c16:uniqueId val="{00000003-9A52-40C5-8AE4-1A8937166EDF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:idx val="4"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>var_4!$S$8</c:f>
+              <c:f>var_4!$Q$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>tр, мес</c:v>
+                  <c:v>S4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1694,7 +855,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent5">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -1705,134 +866,68 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>var_4!$E$10:$E$28</c:f>
+              <c:f>var_4!$Q$8:$Q$26</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>271.79455160000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>135.89727580000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>90.598183866666673</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>67.948637900000008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>54.358910320000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>45.299091933333337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>38.827793085714291</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>33.974318950000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>30.199394622222226</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>27.179455160000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>24.708595600000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>22.649545966666668</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>20.907273200000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>19.413896542857145</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>18.119636773333337</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>16.987159475000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>15.987914800000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>15.099697311111113</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>var_4!$S$9:$S$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>14.304976400000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1840,187 +935,20 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-02B3-4191-A8B3-931688ABB5F0}"/>
+              <c16:uniqueId val="{00000004-9A52-40C5-8AE4-1A8937166EDF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>var_4!$T$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>S5, млн.руб.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>var_4!$E$10:$E$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>var_4!$T$9:$T$27</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>3.6431999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8215999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2143999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.91079999999999994</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.72863999999999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.60719999999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.52045714285714284</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.45539999999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.40479999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.36431999999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.33119999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.30359999999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.28024615384615381</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.26022857142857142</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.24287999999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.22769999999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.21430588235294115</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.2024</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.19174736842105261</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-02B3-4191-A8B3-931688ABB5F0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>var_4!$V$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>tр, мес</c:v>
+                  <c:v>S5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2039,134 +967,68 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>var_4!$E$10:$E$28</c:f>
+              <c:f>var_4!$T$9:$T$27</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3.6431999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1.8215999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>1.2143999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>0.91079999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>0.72863999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>0.60719999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>0.52045714285714284</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>0.45539999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>0.40479999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>0.36431999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>0.33119999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>0.30359999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>0.28024615384615381</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>0.26022857142857142</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>0.24287999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>0.22769999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>0.21430588235294115</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>0.2024</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>var_4!$V$17:$V$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>0.19174736842105261</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2174,187 +1036,20 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-02B3-4191-A8B3-931688ABB5F0}"/>
+              <c16:uniqueId val="{00000005-9A52-40C5-8AE4-1A8937166EDF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
+          <c:idx val="6"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>var_4!$W$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>S6, млн.руб</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>var_4!$E$10:$E$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>var_4!$W$17:$W$35</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>21.479551376458595</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.739775688229297</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.1598504588195313</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.3698878441146487</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.2959102752917193</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5799252294097657</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.0685073394940852</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.6849439220573244</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.3866168196065107</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.1479551376458597</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.9526864887689632</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.7899626147048828</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.6522731828045072</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.5342536697470426</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.4319700917639062</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.3424719610286622</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.2635030221446233</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.1933084098032554</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.1305027040241367</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-02B3-4191-A8B3-931688ABB5F0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>var_4!$AB$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>tр, мес</c:v>
+                  <c:v>S6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2363,173 +1058,6 @@
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>var_4!$E$10:$E$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>var_4!$AB$9:$AB$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-02B3-4191-A8B3-931688ABB5F0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>var_4!$AC$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>S7, млн.руб</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
                   <a:lumMod val="80000"/>
                   <a:lumOff val="20000"/>
                 </a:schemeClr>
@@ -2541,134 +1069,68 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>var_4!$E$10:$E$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>var_4!$AC$9:$AC$27</c:f>
+              <c:f>var_4!$W$17:$W$35</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>385.93220338983053</c:v>
+                  <c:v>21.479551376458595</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>192.96610169491527</c:v>
+                  <c:v>10.739775688229297</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>128.64406779661019</c:v>
+                  <c:v>7.1598504588195313</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>96.483050847457633</c:v>
+                  <c:v>5.3698878441146487</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77.186440677966104</c:v>
+                  <c:v>4.2959102752917193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64.322033898305094</c:v>
+                  <c:v>3.5799252294097657</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.133171912832935</c:v>
+                  <c:v>3.0685073394940852</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48.241525423728817</c:v>
+                  <c:v>2.6849439220573244</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42.881355932203391</c:v>
+                  <c:v>2.3866168196065107</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38.593220338983052</c:v>
+                  <c:v>2.1479551376458597</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35.084745762711869</c:v>
+                  <c:v>1.9526864887689632</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32.161016949152547</c:v>
+                  <c:v>1.7899626147048828</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.687092568448502</c:v>
+                  <c:v>1.6522731828045072</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27.566585956416468</c:v>
+                  <c:v>1.5342536697470426</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25.728813559322035</c:v>
+                  <c:v>1.4319700917639062</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24.120762711864408</c:v>
+                  <c:v>1.3424719610286622</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22.701894317048854</c:v>
+                  <c:v>1.2635030221446233</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21.440677966101696</c:v>
+                  <c:v>1.1933084098032554</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20.312221231043711</c:v>
+                  <c:v>1.1305027040241367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2676,20 +1138,20 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-02B3-4191-A8B3-931688ABB5F0}"/>
+              <c16:uniqueId val="{00000006-9A52-40C5-8AE4-1A8937166EDF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
+          <c:idx val="7"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>var_4!$AE$12</c:f>
+              <c:f>var_4!$AC$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>tр, мес</c:v>
+                  <c:v>S7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2697,7 +1159,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent5">
                   <a:lumMod val="80000"/>
                   <a:lumOff val="20000"/>
                 </a:schemeClr>
@@ -2709,134 +1171,68 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>var_4!$E$10:$E$28</c:f>
+              <c:f>var_4!$AC$9:$AC$27</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>385.93220338983053</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>192.96610169491527</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>128.64406779661019</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>96.483050847457633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>77.186440677966104</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>64.322033898305094</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>55.133171912832935</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>48.241525423728817</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>42.881355932203391</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>38.593220338983052</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>35.084745762711869</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>32.161016949152547</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>29.687092568448502</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>27.566585956416468</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>25.728813559322035</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>24.120762711864408</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>22.701894317048854</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>21.440677966101696</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>var_4!$AE$13:$AE$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>20.312221231043711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2844,188 +1240,20 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-02B3-4191-A8B3-931688ABB5F0}"/>
+              <c16:uniqueId val="{00000007-9A52-40C5-8AE4-1A8937166EDF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="14"/>
-          <c:order val="14"/>
+          <c:idx val="8"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
               <c:f>var_4!$AF$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>S8, млн.руб</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>var_4!$E$10:$E$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>var_4!$AF$13:$AF$31</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>145.29741649919998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72.648708249599991</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>48.432472166399997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>36.324354124799996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29.059483299839997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24.216236083199998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20.756773785599997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18.162177062399998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.144157388799997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14.529741649919998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.208856045381816</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.108118041599999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11.176724346092307</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.378386892799998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.6864944332799983</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.0810885311999989</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.5469068528941161</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.0720786943999983</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.6472324473263145</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-02B3-4191-A8B3-931688ABB5F0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>var_4!$AH$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>tр, мес</c:v>
+                  <c:v>S8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3045,134 +1273,68 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>var_4!$E$10:$E$28</c:f>
+              <c:f>var_4!$AF$13:$AF$31</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>145.29741649919998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>72.648708249599991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>48.432472166399997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>36.324354124799996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>29.059483299839997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>24.216236083199998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>20.756773785599997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>18.162177062399998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>16.144157388799997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>14.529741649919998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>13.208856045381816</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>12.108118041599999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>11.176724346092307</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>10.378386892799998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>9.6864944332799983</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>9.0810885311999989</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>8.5469068528941161</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>8.0720786943999983</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>var_4!$AH$9:$AH$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>7.6472324473263145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3180,188 +1342,20 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-02B3-4191-A8B3-931688ABB5F0}"/>
+              <c16:uniqueId val="{00000008-9A52-40C5-8AE4-1A8937166EDF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="16"/>
-          <c:order val="16"/>
+          <c:idx val="9"/>
+          <c:order val="9"/>
           <c:tx>
             <c:strRef>
               <c:f>var_4!$AI$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>S9, млн.руб</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>var_4!$E$10:$E$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>var_4!$AI$9:$AI$27</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>17.570724249599998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.7853621247999989</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.8569080831999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.3926810623999994</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5141448499199996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.9284540415999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.5101034642285711</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.1963405311999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.9523026943999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7570724249599998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.5973385681454544</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.4642270207999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.3515941730461536</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.2550517321142856</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.17138161664</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.0981702655999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.0335720146823528</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.97615134719999985</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.92477496050526309</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-02B3-4191-A8B3-931688ABB5F0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="17"/>
-          <c:order val="17"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>var_4!$AK$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>tр, мес</c:v>
+                  <c:v>S9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3370,174 +1364,6 @@
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>var_4!$E$10:$E$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>var_4!$AK$9:$AK$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-02B3-4191-A8B3-931688ABB5F0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="18"/>
-          <c:order val="18"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>var_4!$AL$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>S10, млн.руб</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
                   <a:lumMod val="80000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -3548,72 +1374,107 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>var_4!$E$10:$E$28</c:f>
+              <c:f>var_4!$AI$9:$AI$27</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>17.570724249599998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>8.7853621247999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>5.8569080831999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.3926810623999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>3.5141448499199996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>2.9284540415999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>2.5101034642285711</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>2.1963405311999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>1.9523026943999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>1.7570724249599998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>1.5973385681454544</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>1.4642270207999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>1.3515941730461536</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>1.2550517321142856</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>1.17138161664</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>1.0981702655999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>1.0335720146823528</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>0.97615134719999985</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>0.92477496050526309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-9A52-40C5-8AE4-1A8937166EDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>var_4!$AL$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:yVal>
             <c:numRef>
               <c:f>var_4!$AL$9:$AL$27</c:f>
@@ -3683,7 +1544,108 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-02B3-4191-A8B3-931688ABB5F0}"/>
+              <c16:uniqueId val="{0000000A-9A52-40C5-8AE4-1A8937166EDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>var_4!$AQ$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sобщ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>var_4!$AQ$9:$AQ$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>892.39156044148058</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>452.18739102312759</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>308.11560601807088</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>238.07691711633828</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>197.65146665593539</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>172.03263541619725</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>154.87472944541045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>143.00490176771822</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>134.66045961875571</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>128.78378733990405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>124.70185678476926</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>121.96598252242221</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120.2655361776042</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>119.37864033941611</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>119.14258490653195</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>119.43533730295725</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>120.16357849999034</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>121.25472703086326</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>122.6514817376013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-9A52-40C5-8AE4-1A8937166EDF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3695,11 +1657,128 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="493515072"/>
-        <c:axId val="494055680"/>
+        <c:axId val="1003919600"/>
+        <c:axId val="1005331408"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>var_4!$E$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>tр, мес</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>var_4!$E$10:$E$28</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>19</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-9A52-40C5-8AE4-1A8937166EDF}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="493515072"/>
+        <c:axId val="1003919600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3719,7 +1798,73 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>t, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200"/>
+                  <a:t>мес</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.51027530324263393"/>
+              <c:y val="0.89638162407125199"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3756,12 +1901,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494055680"/>
+        <c:crossAx val="1005331408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="494055680"/>
+        <c:axId val="1005331408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3781,6 +1926,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>S,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" baseline="0"/>
+                  <a:t>млн.руб</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>.</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3818,7 +2031,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493515072"/>
+        <c:crossAx val="1003919600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3906,13 +2119,10 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -4463,25 +2673,80 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B57C01AC-D00D-45D1-9DB8-C07EB72153F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26069925" y="3033712"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>109536</xdr:rowOff>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A3457D5-984A-492F-B347-CD5E353AE310}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B82D72B-4C62-4F08-8F5B-8D2E13A19E53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4765,10 +3030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL35"/>
+  <dimension ref="A1:AQ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="S50" sqref="S50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4791,9 +3056,10 @@
     <col min="32" max="32" width="13.140625" customWidth="1"/>
     <col min="35" max="35" width="16.140625" customWidth="1"/>
     <col min="38" max="38" width="14.140625" customWidth="1"/>
+    <col min="43" max="43" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -4829,13 +3095,13 @@
         <v>62</v>
       </c>
       <c r="AH1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AK1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -4896,7 +3162,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -4951,19 +3217,19 @@
         <v>0.5</v>
       </c>
       <c r="AH3" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AI3" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AK3" s="8" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AL3" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -5005,7 +3271,7 @@
         <v>1</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF4" s="2">
         <v>0.16</v>
@@ -5023,7 +3289,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -5063,13 +3329,13 @@
         <v>0.97</v>
       </c>
       <c r="AE5" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="AF5" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -5086,7 +3352,7 @@
         <v>17</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="S6" s="14" t="s">
         <v>38</v>
@@ -5118,21 +3384,21 @@
         <v>2300000</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AI6" s="2">
         <f>AH4*AI4*AF4/10^6</f>
         <v>3.1103999999999998</v>
       </c>
       <c r="AK6" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AL6" s="2">
         <f>AK4*AL4*AF4/10^6</f>
         <v>7.5552000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -5155,7 +3421,7 @@
         <v>17</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="M7" s="8">
         <v>1</v>
@@ -5168,7 +3434,7 @@
         <v>17</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="V7" s="4" t="s">
         <v>44</v>
@@ -5192,7 +3458,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="3"/>
       <c r="I8" s="8">
@@ -5220,7 +3486,7 @@
         <v>17</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="V8" s="4" t="s">
         <v>45</v>
@@ -5241,29 +3507,35 @@
         <v>17</v>
       </c>
       <c r="AC8" s="11" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="AH8" s="11" t="s">
         <v>17</v>
       </c>
       <c r="AI8" s="11" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="AK8" s="11" t="s">
         <v>17</v>
       </c>
       <c r="AL8" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="AP8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ8" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3"/>
       <c r="E9" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I9" s="8">
         <v>2</v>
@@ -5316,7 +3588,7 @@
         <v>385.93220338983053</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF9" s="2">
         <f>B1*J3*F5/(10^3*AF2*AF3)</f>
@@ -5336,8 +3608,15 @@
         <f>$AL$6*$AF$9/AK9</f>
         <v>42.6795061248</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="15">
+        <f>F10+J8+N7+Q8+T9+W17+AC9+AF13+AI9+AL9</f>
+        <v>892.39156044148058</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="3"/>
       <c r="E10" s="11">
@@ -5383,7 +3662,7 @@
         <v>192.96610169491527</v>
       </c>
       <c r="AE10" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AF10" s="2">
         <f>AE6*AF6*AF4/10^6+AE7*AF7*AF4/10^6</f>
@@ -5403,8 +3682,15 @@
         <f t="shared" ref="AL10:AL27" si="6">$AL$6*$AF$9/AK10</f>
         <v>21.3397530624</v>
       </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP10" s="8">
+        <v>2</v>
+      </c>
+      <c r="AQ10" s="15">
+        <f>F11+J9+N8+Q9+T10+W18+AC10+AF14+AI10+AL10</f>
+        <v>452.18739102312759</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="3"/>
       <c r="E11" s="11">
@@ -5472,8 +3758,15 @@
         <f t="shared" si="6"/>
         <v>14.2265020416</v>
       </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP11" s="8">
+        <v>3</v>
+      </c>
+      <c r="AQ11" s="15">
+        <f t="shared" ref="AQ11:AQ27" si="8">F12+J10+N9+Q10+T11+W19+AC11+AF15+AI11+AL11</f>
+        <v>308.11560601807088</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="E12" s="11">
         <v>3</v>
       </c>
@@ -5532,7 +3825,7 @@
         <v>17</v>
       </c>
       <c r="AF12" s="11" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AH12" s="8">
         <v>4</v>
@@ -5548,8 +3841,15 @@
         <f t="shared" si="6"/>
         <v>10.6698765312</v>
       </c>
-    </row>
-    <row r="13" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP12" s="8">
+        <v>4</v>
+      </c>
+      <c r="AQ12" s="15">
+        <f t="shared" si="8"/>
+        <v>238.07691711633828</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="11">
         <v>4</v>
       </c>
@@ -5613,8 +3913,15 @@
         <f t="shared" si="6"/>
         <v>8.5359012249599999</v>
       </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP13" s="8">
+        <v>5</v>
+      </c>
+      <c r="AQ13" s="15">
+        <f>F14+J12+N11+Q12+T13+W21+AC13+AF17+AI13+AL13</f>
+        <v>197.65146665593539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="E14" s="11">
         <v>5</v>
       </c>
@@ -5669,7 +3976,7 @@
         <v>2</v>
       </c>
       <c r="AF14" s="15">
-        <f t="shared" ref="AF14:AF31" si="8">$AF$9*$AF$10/AE14</f>
+        <f t="shared" ref="AF14:AF31" si="9">$AF$9*$AF$10/AE14</f>
         <v>72.648708249599991</v>
       </c>
       <c r="AH14" s="8">
@@ -5686,8 +3993,15 @@
         <f t="shared" si="6"/>
         <v>7.1132510207999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP14" s="8">
+        <v>6</v>
+      </c>
+      <c r="AQ14" s="15">
+        <f t="shared" si="8"/>
+        <v>172.03263541619725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="E15" s="11">
         <v>6</v>
       </c>
@@ -5731,11 +4045,11 @@
         <v>55.133171912832935</v>
       </c>
       <c r="AE15" s="8">
-        <f t="shared" ref="AE15:AE30" si="9">AE14+1</f>
+        <f t="shared" ref="AE15:AE30" si="10">AE14+1</f>
         <v>3</v>
       </c>
       <c r="AF15" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>48.432472166399997</v>
       </c>
       <c r="AH15" s="8">
@@ -5752,8 +4066,15 @@
         <f t="shared" si="6"/>
         <v>6.0970723035428573</v>
       </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP15" s="8">
+        <v>7</v>
+      </c>
+      <c r="AQ15" s="15">
+        <f t="shared" si="8"/>
+        <v>154.87472944541045</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="E16" s="11">
         <v>7</v>
       </c>
@@ -5793,7 +4114,7 @@
         <v>17</v>
       </c>
       <c r="W16" s="11" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="AB16" s="8">
         <v>8</v>
@@ -5803,11 +4124,11 @@
         <v>48.241525423728817</v>
       </c>
       <c r="AE16" s="8">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="AF16" s="15">
         <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="AF16" s="15">
-        <f t="shared" si="8"/>
         <v>36.324354124799996</v>
       </c>
       <c r="AH16" s="8">
@@ -5824,8 +4145,15 @@
         <f t="shared" si="6"/>
         <v>5.3349382656</v>
       </c>
-    </row>
-    <row r="17" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="AP16" s="8">
+        <v>8</v>
+      </c>
+      <c r="AQ16" s="15">
+        <f t="shared" si="8"/>
+        <v>143.00490176771822</v>
+      </c>
+    </row>
+    <row r="17" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E17" s="11">
         <v>8</v>
       </c>
@@ -5876,11 +4204,11 @@
         <v>42.881355932203391</v>
       </c>
       <c r="AE17" s="8">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="AF17" s="15">
         <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="AF17" s="15">
-        <f t="shared" si="8"/>
         <v>29.059483299839997</v>
       </c>
       <c r="AH17" s="8">
@@ -5897,8 +4225,15 @@
         <f t="shared" si="6"/>
         <v>4.7421673471999997</v>
       </c>
-    </row>
-    <row r="18" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="AP17" s="8">
+        <v>9</v>
+      </c>
+      <c r="AQ17" s="15">
+        <f t="shared" si="8"/>
+        <v>134.66045961875571</v>
+      </c>
+    </row>
+    <row r="18" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E18" s="11">
         <v>9</v>
       </c>
@@ -5938,7 +4273,7 @@
         <v>2</v>
       </c>
       <c r="W18" s="15">
-        <f t="shared" ref="W18:W34" si="10">$W$14/V18</f>
+        <f t="shared" ref="W18:W34" si="11">$W$14/V18</f>
         <v>10.739775688229297</v>
       </c>
       <c r="AB18" s="8">
@@ -5949,11 +4284,11 @@
         <v>38.593220338983052</v>
       </c>
       <c r="AE18" s="8">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="AF18" s="15">
         <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="AF18" s="15">
-        <f t="shared" si="8"/>
         <v>24.216236083199998</v>
       </c>
       <c r="AH18" s="8">
@@ -5970,8 +4305,15 @@
         <f t="shared" si="6"/>
         <v>4.26795061248</v>
       </c>
-    </row>
-    <row r="19" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="AP18" s="8">
+        <v>10</v>
+      </c>
+      <c r="AQ18" s="15">
+        <f t="shared" si="8"/>
+        <v>128.78378733990405</v>
+      </c>
+    </row>
+    <row r="19" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E19" s="11">
         <v>10</v>
       </c>
@@ -6011,7 +4353,7 @@
         <v>3</v>
       </c>
       <c r="W19" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.1598504588195313</v>
       </c>
       <c r="AB19" s="8">
@@ -6022,11 +4364,11 @@
         <v>35.084745762711869</v>
       </c>
       <c r="AE19" s="8">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="AF19" s="15">
         <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="AF19" s="15">
-        <f t="shared" si="8"/>
         <v>20.756773785599997</v>
       </c>
       <c r="AH19" s="8">
@@ -6043,8 +4385,15 @@
         <f t="shared" si="6"/>
         <v>3.8799551022545455</v>
       </c>
-    </row>
-    <row r="20" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="AP19" s="8">
+        <v>11</v>
+      </c>
+      <c r="AQ19" s="15">
+        <f t="shared" si="8"/>
+        <v>124.70185678476926</v>
+      </c>
+    </row>
+    <row r="20" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E20" s="11">
         <v>11</v>
       </c>
@@ -6084,7 +4433,7 @@
         <v>4</v>
       </c>
       <c r="W20" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.3698878441146487</v>
       </c>
       <c r="AB20" s="8">
@@ -6095,11 +4444,11 @@
         <v>32.161016949152547</v>
       </c>
       <c r="AE20" s="8">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="AF20" s="15">
         <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="AF20" s="15">
-        <f t="shared" si="8"/>
         <v>18.162177062399998</v>
       </c>
       <c r="AH20" s="8">
@@ -6116,8 +4465,15 @@
         <f t="shared" si="6"/>
         <v>3.5566255104</v>
       </c>
-    </row>
-    <row r="21" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="AP20" s="8">
+        <v>12</v>
+      </c>
+      <c r="AQ20" s="15">
+        <f t="shared" si="8"/>
+        <v>121.96598252242221</v>
+      </c>
+    </row>
+    <row r="21" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E21" s="11">
         <v>12</v>
       </c>
@@ -6157,7 +4513,7 @@
         <v>5</v>
       </c>
       <c r="W21" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.2959102752917193</v>
       </c>
       <c r="AB21" s="8">
@@ -6168,11 +4524,11 @@
         <v>29.687092568448502</v>
       </c>
       <c r="AE21" s="8">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="AF21" s="15">
         <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="AF21" s="15">
-        <f t="shared" si="8"/>
         <v>16.144157388799997</v>
       </c>
       <c r="AH21" s="8">
@@ -6189,8 +4545,15 @@
         <f t="shared" si="6"/>
         <v>3.2830389326769231</v>
       </c>
-    </row>
-    <row r="22" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="AP21" s="8">
+        <v>13</v>
+      </c>
+      <c r="AQ21" s="15">
+        <f t="shared" si="8"/>
+        <v>120.2655361776042</v>
+      </c>
+    </row>
+    <row r="22" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E22" s="11">
         <v>13</v>
       </c>
@@ -6230,7 +4593,7 @@
         <v>6</v>
       </c>
       <c r="W22" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.5799252294097657</v>
       </c>
       <c r="AB22" s="8">
@@ -6241,11 +4604,11 @@
         <v>27.566585956416468</v>
       </c>
       <c r="AE22" s="8">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="AF22" s="15">
         <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="AF22" s="15">
-        <f t="shared" si="8"/>
         <v>14.529741649919998</v>
       </c>
       <c r="AH22" s="8">
@@ -6262,8 +4625,15 @@
         <f t="shared" si="6"/>
         <v>3.0485361517714287</v>
       </c>
-    </row>
-    <row r="23" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="AP22" s="8">
+        <v>14</v>
+      </c>
+      <c r="AQ22" s="15">
+        <f t="shared" si="8"/>
+        <v>119.37864033941611</v>
+      </c>
+    </row>
+    <row r="23" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E23" s="11">
         <v>14</v>
       </c>
@@ -6303,7 +4673,7 @@
         <v>7</v>
       </c>
       <c r="W23" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.0685073394940852</v>
       </c>
       <c r="AB23" s="8">
@@ -6314,11 +4684,11 @@
         <v>25.728813559322035</v>
       </c>
       <c r="AE23" s="8">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="AF23" s="15">
         <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="AF23" s="15">
-        <f t="shared" si="8"/>
         <v>13.208856045381816</v>
       </c>
       <c r="AH23" s="8">
@@ -6335,8 +4705,15 @@
         <f t="shared" si="6"/>
         <v>2.84530040832</v>
       </c>
-    </row>
-    <row r="24" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="AP23" s="8">
+        <v>15</v>
+      </c>
+      <c r="AQ23" s="15">
+        <f t="shared" si="8"/>
+        <v>119.14258490653195</v>
+      </c>
+    </row>
+    <row r="24" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E24" s="11">
         <v>15</v>
       </c>
@@ -6376,7 +4753,7 @@
         <v>8</v>
       </c>
       <c r="W24" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.6849439220573244</v>
       </c>
       <c r="AB24" s="8">
@@ -6387,11 +4764,11 @@
         <v>24.120762711864408</v>
       </c>
       <c r="AE24" s="8">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="AF24" s="15">
         <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="AF24" s="15">
-        <f t="shared" si="8"/>
         <v>12.108118041599999</v>
       </c>
       <c r="AH24" s="8">
@@ -6408,8 +4785,15 @@
         <f t="shared" si="6"/>
         <v>2.6674691328</v>
       </c>
-    </row>
-    <row r="25" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="AP24" s="8">
+        <v>16</v>
+      </c>
+      <c r="AQ24" s="15">
+        <f t="shared" si="8"/>
+        <v>119.43533730295725</v>
+      </c>
+    </row>
+    <row r="25" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E25" s="11">
         <v>16</v>
       </c>
@@ -6449,7 +4833,7 @@
         <v>9</v>
       </c>
       <c r="W25" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.3866168196065107</v>
       </c>
       <c r="AB25" s="8">
@@ -6460,11 +4844,11 @@
         <v>22.701894317048854</v>
       </c>
       <c r="AE25" s="8">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="AF25" s="15">
         <f t="shared" si="9"/>
-        <v>13</v>
-      </c>
-      <c r="AF25" s="15">
-        <f t="shared" si="8"/>
         <v>11.176724346092307</v>
       </c>
       <c r="AH25" s="8">
@@ -6481,8 +4865,15 @@
         <f t="shared" si="6"/>
         <v>2.5105591838117647</v>
       </c>
-    </row>
-    <row r="26" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="AP25" s="8">
+        <v>17</v>
+      </c>
+      <c r="AQ25" s="15">
+        <f t="shared" si="8"/>
+        <v>120.16357849999034</v>
+      </c>
+    </row>
+    <row r="26" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E26" s="11">
         <v>17</v>
       </c>
@@ -6515,7 +4906,7 @@
         <v>10</v>
       </c>
       <c r="W26" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.1479551376458597</v>
       </c>
       <c r="AB26" s="8">
@@ -6526,11 +4917,11 @@
         <v>21.440677966101696</v>
       </c>
       <c r="AE26" s="8">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="AF26" s="15">
         <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="AF26" s="15">
-        <f t="shared" si="8"/>
         <v>10.378386892799998</v>
       </c>
       <c r="AH26" s="8">
@@ -6547,8 +4938,15 @@
         <f t="shared" si="6"/>
         <v>2.3710836735999998</v>
       </c>
-    </row>
-    <row r="27" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="AP26" s="8">
+        <v>18</v>
+      </c>
+      <c r="AQ26" s="15">
+        <f t="shared" si="8"/>
+        <v>121.25472703086326</v>
+      </c>
+    </row>
+    <row r="27" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E27" s="11">
         <v>18</v>
       </c>
@@ -6567,7 +4965,7 @@
         <v>11</v>
       </c>
       <c r="W27" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.9526864887689632</v>
       </c>
       <c r="AB27" s="8">
@@ -6578,11 +4976,11 @@
         <v>20.312221231043711</v>
       </c>
       <c r="AE27" s="8">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="AF27" s="15">
         <f t="shared" si="9"/>
-        <v>15</v>
-      </c>
-      <c r="AF27" s="15">
-        <f t="shared" si="8"/>
         <v>9.6864944332799983</v>
       </c>
       <c r="AH27" s="8">
@@ -6599,8 +4997,15 @@
         <f t="shared" si="6"/>
         <v>2.2462897960421051</v>
       </c>
-    </row>
-    <row r="28" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="AP27" s="8">
+        <v>19</v>
+      </c>
+      <c r="AQ27" s="15">
+        <f t="shared" si="8"/>
+        <v>122.6514817376013</v>
+      </c>
+    </row>
+    <row r="28" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E28" s="11">
         <v>19</v>
       </c>
@@ -6612,7 +5017,7 @@
         <v>12</v>
       </c>
       <c r="W28" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.7899626147048828</v>
       </c>
       <c r="AE28" s="8">
@@ -6620,50 +5025,50 @@
         <v>16</v>
       </c>
       <c r="AF28" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.0810885311999989</v>
       </c>
     </row>
-    <row r="29" spans="5:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:43" x14ac:dyDescent="0.25">
       <c r="V29" s="8">
         <v>13</v>
       </c>
       <c r="W29" s="15">
+        <f t="shared" si="11"/>
+        <v>1.6522731828045072</v>
+      </c>
+      <c r="AE29" s="8">
         <f t="shared" si="10"/>
-        <v>1.6522731828045072</v>
-      </c>
-      <c r="AE29" s="8">
+        <v>17</v>
+      </c>
+      <c r="AF29" s="15">
         <f t="shared" si="9"/>
-        <v>17</v>
-      </c>
-      <c r="AF29" s="15">
-        <f t="shared" si="8"/>
         <v>8.5469068528941161</v>
       </c>
     </row>
-    <row r="30" spans="5:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:43" x14ac:dyDescent="0.25">
       <c r="V30" s="8">
         <v>14</v>
       </c>
       <c r="W30" s="15">
+        <f t="shared" si="11"/>
+        <v>1.5342536697470426</v>
+      </c>
+      <c r="AE30" s="8">
         <f t="shared" si="10"/>
-        <v>1.5342536697470426</v>
-      </c>
-      <c r="AE30" s="8">
+        <v>18</v>
+      </c>
+      <c r="AF30" s="15">
         <f t="shared" si="9"/>
-        <v>18</v>
-      </c>
-      <c r="AF30" s="15">
-        <f t="shared" si="8"/>
         <v>8.0720786943999983</v>
       </c>
     </row>
-    <row r="31" spans="5:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:43" x14ac:dyDescent="0.25">
       <c r="V31" s="8">
         <v>15</v>
       </c>
       <c r="W31" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4319700917639062</v>
       </c>
       <c r="AE31" s="8">
@@ -6671,16 +5076,16 @@
         <v>19</v>
       </c>
       <c r="AF31" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.6472324473263145</v>
       </c>
     </row>
-    <row r="32" spans="5:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:43" x14ac:dyDescent="0.25">
       <c r="V32" s="8">
         <v>16</v>
       </c>
       <c r="W32" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3424719610286622</v>
       </c>
     </row>
@@ -6689,7 +5094,7 @@
         <v>17</v>
       </c>
       <c r="W33" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2635030221446233</v>
       </c>
     </row>
@@ -6698,7 +5103,7 @@
         <v>18</v>
       </c>
       <c r="W34" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1933084098032554</v>
       </c>
     </row>
